--- a/contacts.xlsx
+++ b/contacts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,156 +448,6540 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://unstop.com/hackathon/gdscs-hackin-winters-jaypee-institute-of-information-technology-jiit-noida-489252</t>
+          <t>https://unstop.com/hackathon/wecode-coding-contest-21-graphic-era-hill-university-gehu-bhimtal-490832</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[{'id': 1237816, 'name': 'Anusha Yadav', 'designation': None, 'contact_no': '+917419170809', 'contactable_id': 489252, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'anushayadav1401@gmail.com'}, {'id': 1237817, 'name': 'Ayush Bansal', 'designation': None, 'contact_no': '+918368274303', 'contactable_id': 489252, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ayushb6732@gmail.com'}]</t>
+          <t>[{'id': 1239571, 'name': 'Parul Singh', 'designation': None, 'contact_no': '+918869027833', 'contactable_id': 490832, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'parul132003@gmail.com'}]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://unstop.com/hackathon/line-following-robot-enyugma-22-indian-institute-of-information-technology-iiit-bhagalpur-489171</t>
+          <t>https://unstop.com/hackathon/gdscs-hackin-winters-jaypee-institute-of-information-technology-jiit-noida-489252</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[{'id': 1237487, 'name': 'Rajiv Ranjan', 'designation': None, 'contact_no': '+919608792801', 'contactable_id': 489171, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'rajiv.mea.20096@iiitbh.ac.in'}]</t>
+          <t>[{'id': 1237816, 'name': 'Anusha Yadav', 'designation': None, 'contact_no': '+917419170809', 'contactable_id': 489252, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'anushayadav1401@gmail.com'}, {'id': 1240357, 'name': 'Ayush Bansal', 'designation': None, 'contact_no': '+918368274303', 'contactable_id': 489252, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ayushb6732@gmail.com'}]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://unstop.com/hackathon/bit-by-bit-enyugma-22-indian-institute-of-information-technology-iiit-bhagalpur-486498</t>
+          <t>https://unstop.com/hackathon/line-following-robot-enyugma-22-indian-institute-of-information-technology-iiit-bhagalpur-489171</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[{'id': 1234021, 'name': 'Prateek Chandra', 'designation': None, 'contact_no': None, 'contactable_id': 486498, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'prateek.ece.20035@iiitbh.ac.in'}, {'id': 1235638, 'name': 'Shreyash Kumar', 'designation': None, 'contact_no': '+919883325446', 'contactable_id': 486498, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'shreyash.2101142ec@iiitbh.ac.in'}, {'id': 1235639, 'name': 'Anmol Raj Soni', 'designation': None, 'contact_no': '+919153373611', 'contactable_id': 486498, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'anmol.2101107ec@iiitbh.ac.in'}, {'id': 1235640, 'name': 'Tushar Bharti', 'designation': None, 'contact_no': '+916263357843', 'contactable_id': 486498, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'tushar.2101195cs@iiitbh.ac.in'}, {'id': 1234054, 'name': 'Harsh Rastogi', 'designation': None, 'contact_no': '+917455878221', 'contactable_id': 486498, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'harsh.cse.20023@iiitbh.ac.in'}]</t>
+          <t>[{'id': 1237487, 'name': 'Rajiv Ranjan', 'designation': None, 'contact_no': '+919608792801', 'contactable_id': 489171, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'rajiv.mea.20096@iiitbh.ac.in'}]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://unstop.com/hackathon/codeloop-enyugma-22-indian-institute-of-information-technology-iiit-bhagalpur-482617</t>
+          <t>https://unstop.com/hackathon/bit-by-bit-enyugma-22-indian-institute-of-information-technology-iiit-bhagalpur-486498</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[{'id': 1230083, 'name': 'Venkatesh Mishra', 'designation': None, 'contact_no': '+919598560188', 'contactable_id': 482617, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'venkatesh.cse.20004@iiitbh.ac.in'}, {'id': 1235044, 'name': 'Vivek Kumar Mishra', 'designation': None, 'contact_no': '7011705682', 'contactable_id': 482617, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'vivek.cse.20007@iiitbh.ac.in'}]</t>
+          <t>[{'id': 1234021, 'name': 'Prateek Chandra', 'designation': None, 'contact_no': None, 'contactable_id': 486498, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'prateek.ece.20035@iiitbh.ac.in'}, {'id': 1235638, 'name': 'Shreyash Kumar', 'designation': None, 'contact_no': '+919883325446', 'contactable_id': 486498, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'shreyash.2101142ec@iiitbh.ac.in'}, {'id': 1235639, 'name': 'Anmol Raj Soni', 'designation': None, 'contact_no': '+919153373611', 'contactable_id': 486498, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'anmol.2101107ec@iiitbh.ac.in'}, {'id': 1235640, 'name': 'Tushar Bharti', 'designation': None, 'contact_no': '+916263357843', 'contactable_id': 486498, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'tushar.2101195cs@iiitbh.ac.in'}, {'id': 1234054, 'name': 'Harsh Rastogi', 'designation': None, 'contact_no': '+917455878221', 'contactable_id': 486498, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'harsh.cse.20023@iiitbh.ac.in'}]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://unstop.com/hackathon/inspirathon-20-netaji-subhas-university-of-technology-nsut-delhi-484390</t>
+          <t>https://unstop.com/hackathon/codeloop-enyugma-22-indian-institute-of-information-technology-iiit-bhagalpur-482617</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[{'id': 1232211, 'name': 'IEEE NSUT', 'designation': None, 'contact_no': None, 'contactable_id': 484390, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'contact.ieeensut@gmail.com'}]</t>
+          <t>[{'id': 1230083, 'name': 'Venkatesh Mishra', 'designation': None, 'contact_no': '+919598560188', 'contactable_id': 482617, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'venkatesh.cse.20004@iiitbh.ac.in'}, {'id': 1235044, 'name': 'Vivek Kumar Mishra', 'designation': None, 'contact_no': '7011705682', 'contactable_id': 482617, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'vivek.cse.20007@iiitbh.ac.in'}]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://unstop.com/hackathon/crypton-2022-the-northcap-university-ncu-gurgaon-486704</t>
+          <t>https://unstop.com/hackathon/inspirathon-20-netaji-subhas-university-of-technology-nsut-delhi-484390</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[{'id': 1234285, 'name': 'Tanu Verma', 'designation': None, 'contact_no': None, 'contactable_id': 486704, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'tanu19csu320@ncuindia.edu'}, {'id': 1234549, 'name': 'Animesh Das', 'designation': None, 'contact_no': None, 'contactable_id': 486704, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'animesh19csu027@ncuindia.edu'}, {'id': 1234550, 'name': 'Shiv Sarthak', 'designation': None, 'contact_no': None, 'contactable_id': 486704, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'shiv19csu288@ncuindia.edu'}]</t>
+          <t>[{'id': 1232211, 'name': 'IEEE NSUT', 'designation': None, 'contact_no': None, 'contactable_id': 484390, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'contact.ieeensut@gmail.com'}]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://unstop.com/hackathon/hack-the-box-indian-institute-of-technology-iit-bhubaneswar-482370</t>
+          <t>https://unstop.com/hackathon/crypton-2022-the-northcap-university-ncu-gurgaon-486704</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[{'id': 1229797, 'name': 'Secretary, Programming Society, IIT Bhubaneswar', 'designation': None, 'contact_no': None, 'contactable_id': 482370, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'secyprogsoc.sg@iitbbs.ac.in'}]</t>
+          <t>[{'id': 1234285, 'name': 'Tanu Verma', 'designation': None, 'contact_no': None, 'contactable_id': 486704, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'tanu19csu320@ncuindia.edu'}, {'id': 1234549, 'name': 'Animesh Das', 'designation': None, 'contact_no': None, 'contactable_id': 486704, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'animesh19csu027@ncuindia.edu'}, {'id': 1234550, 'name': 'Shiv Sarthak', 'designation': None, 'contact_no': None, 'contactable_id': 486704, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'shiv19csu288@ncuindia.edu'}]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://unstop.com/hackathon/codelentine-indian-institute-of-information-technology-iiit-bhagalpur-480721</t>
+          <t>https://unstop.com/hackathon/codeverse-indian-institute-of-technology-iit-bhubaneswar-483697</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[{'id': 1228180, 'name': 'Bharat Pal', 'designation': None, 'contact_no': '+919987780963', 'contactable_id': 480721, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'bharat.cse.1922@iiitbh.ac.in'}]</t>
+          <t>[{'id': 1231217, 'name': 'Secretary, Programming Society, IIT Bhubaneswar', 'designation': None, 'contact_no': None, 'contactable_id': 483697, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'secyprogsoc.sg@iitbbs.ac.in'}]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://unstop.com/hackathon/hack-your-way-oasis-bits-pilani-birla-institute-of-technology-science-bits-pilani-474352</t>
+          <t>https://unstop.com/hackathon/hack-the-box-indian-institute-of-technology-iit-bhubaneswar-482370</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[{'id': 1223758, 'name': 'Coding Club BITS Pilani', 'designation': None, 'contact_no': None, 'contactable_id': 474352, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'codingclub.bits@gmail.com'}, {'id': 1223923, 'name': 'Mridul Chandak', 'designation': None, 'contact_no': '+919830556095', 'contactable_id': 474352, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'f20200133@pilani.bits-pilani.ac.in'}]</t>
+          <t>[{'id': 1229797, 'name': 'Secretary, Programming Society, IIT Bhubaneswar', 'designation': None, 'contact_no': None, 'contactable_id': 482370, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'secyprogsoc.sg@iitbbs.ac.in'}]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://unstop.com/hackathon/first-ever-inter-college-hackathon-praxis-business-school-kolkata-473114</t>
+          <t>https://unstop.com/hackathon/codelentine-indian-institute-of-information-technology-iiit-bhagalpur-480721</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[{'id': 1220302, 'name': 'Sayantani Roy Choudhury', 'designation': None, 'contact_no': '+918240258681', 'contactable_id': 473114, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'sayantani@praxis.ac.in'}]</t>
+          <t>[{'id': 1228180, 'name': 'Bharat Pal', 'designation': None, 'contact_no': '+919987780963', 'contactable_id': 480721, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'bharat.cse.1922@iiitbh.ac.in'}]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://unstop.com/hackathon/coding-challenge-bharati-vidyapeeths-institute-of-computer-applications-and-management-bvicam-new-delhi-465936</t>
+          <t>https://unstop.com/hackathon/hack-your-way-oasis-bits-pilani-birla-institute-of-technology-science-bits-pilani-474352</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[{'id': 1213562, 'name': 'Education Day BVICAM', 'designation': None, 'contact_no': None, 'contactable_id': 465936, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'educationday@bvicam.in'}]</t>
+          <t>[{'id': 1223758, 'name': 'Coding Club BITS Pilani', 'designation': None, 'contact_no': None, 'contactable_id': 474352, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'codingclub.bits@gmail.com'}, {'id': 1223923, 'name': 'Mridul Chandak', 'designation': None, 'contact_no': '+919830556095', 'contactable_id': 474352, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'f20200133@pilani.bits-pilani.ac.in'}]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://unstop.com/hackathon/bits-pilani-postman-hackathon-20-birla-institute-of-technology-science-bits-pilani-448792</t>
+          <t>https://unstop.com/hackathon/ideathon-bharati-vidyapeeths-college-of-engineering-bvcoe-new-delhi-478179</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[{'id': 1196927, 'name': 'BITS Pilani Postman API and Coding Innovation Lab', 'designation': None, 'contact_no': '+919407095716', 'contactable_id': 448792, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'bits-postman-lab@pilani.bits-pilani.ac.in'}]</t>
+          <t>[{'id': 1225211, 'name': 'Hemant Kumar', 'designation': None, 'contact_no': '+918287814109', 'contactable_id': 478179, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'hk0606june@gmail.com'}, {'id': 1225342, 'name': 'Aksh Gambhir', 'designation': None, 'contact_no': '+918700342018', 'contactable_id': 478179, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'akshgambhir@gmail.com'}]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>https://unstop.com/hackathon/creda-ideathon-technovate-2022-international-institute-of-information-technology-iiit-naya-raipur-477025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>[{'id': 1223825, 'name': 'Shivam Saxena', 'designation': None, 'contact_no': None, 'contactable_id': 477025, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'shivam20102@iiitnr.edu.in'}, {'id': 1223826, 'name': 'Swarup Yeole', 'designation': None, 'contact_no': None, 'contactable_id': 477025, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'swarup20100@iiitnr.edu.in'}, {'id': 1223827, 'name': 'Sanskar Chandra', 'designation': None, 'contact_no': None, 'contactable_id': 477025, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'sanskar20102@iiitnr.edu.in'}, {'id': 1223824, 'name': 'Divyansh Kushwaha', 'designation': None, 'contact_no': None, 'contactable_id': 477025, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'divyansh20101@iiitnr.edu.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/first-ever-inter-college-hackathon-praxis-business-school-kolkata-473114</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>[{'id': 1220302, 'name': 'Sayantani Roy Choudhury', 'designation': None, 'contact_no': '+918240258681', 'contactable_id': 473114, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'sayantani@praxis.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/spider-3o-the-web-crawler-birsa-institute-of-technology-bit-sindri-468180</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>[{'id': 1215343, 'name': 'ISTE BIT SINDRI', 'designation': None, 'contact_no': '+917667766107', 'contactable_id': 468180, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'istebitsbh01@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/coding-velocity-pnapaao-private-limited-465870</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>[{'id': 1213561, 'name': 'Arun Kumar', 'designation': None, 'contact_no': '+917007226092', 'contactable_id': 465870, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'arun@pnapaao.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/tech-hackathon-indian-institute-of-technology-iit-delhi-469170</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>[{'id': 1216300, 'name': 'Prabal', 'designation': None, 'contact_no': None, 'contactable_id': 469170, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'prabalkaur.fitt@gmail.com'}, {'id': 1216533, 'name': 'Dewansh', 'designation': None, 'contact_no': None, 'contactable_id': 469170, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'tidefitt@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hacked-22-bml-munjal-university-bmu-gurgaon-461788</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>[{'id': 1209878, 'name': 'Dhruv Goel', 'designation': None, 'contact_no': '+917838531201', 'contactable_id': 461788, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'dhruv.goel.21cse@bmu.edu.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/coding-challenge-bharati-vidyapeeths-institute-of-computer-applications-and-management-bvicam-new-delhi-465936</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>[{'id': 1213562, 'name': 'Education Day BVICAM', 'designation': None, 'contact_no': None, 'contactable_id': 465936, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'educationday@bvicam.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/codecrunch-powered-by-creative-capsule-techyon-2022-padre-conceicao-college-of-engineering-salcete-goa-462202</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>[{'id': 1211586, 'name': 'Shreya Sawant', 'designation': None, 'contact_no': '+917410728637', 'contactable_id': 462202, 'contactable_type': 'App\\Model\\Opportunity', 'email': None}, {'id': 1211584, 'name': 'Techyon 2022', 'designation': None, 'contact_no': None, 'contactable_id': 462202, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'techyon2022@gmail.com'}, {'id': 1211585, 'name': 'Melitta Pacheco', 'designation': None, 'contact_no': '+918806510082', 'contactable_id': 462202, 'contactable_type': 'App\\Model\\Opportunity', 'email': None}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/weave-the-web-powered-by-edot-solutions-techyon-2022-padre-conceicao-college-of-engineering-salcete-goa-462438</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>[{'id': 1210691, 'name': 'Techyon 2022 PCCE', 'designation': None, 'contact_no': None, 'contactable_id': 462438, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'techyonpcce2022@gmail.com'}, {'id': 1212114, 'name': "Ashley D'Silva", 'designation': None, 'contact_no': '+919579723549', 'contactable_id': 462438, 'contactable_type': 'App\\Model\\Opportunity', 'email': None}, {'id': 1212115, 'name': 'Shivam Korgaonkar', 'designation': None, 'contact_no': '+917507986584', 'contactable_id': 462438, 'contactable_type': 'App\\Model\\Opportunity', 'email': None}, {'id': 1212113, 'name': 'Shreya Bhagwat', 'designation': None, 'contact_no': '+918803315544', 'contactable_id': 462438, 'contactable_type': 'App\\Model\\Opportunity', 'email': None}, {'id': 1212116, 'name': 'Aafil Shaikh', 'designation': None, 'contact_no': '+919172128696', 'contactable_id': 462438, 'contactable_type': 'App\\Model\\Opportunity', 'email': None}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hacktech-powered-by-visteon-techyon-2022-padre-conceicao-college-of-engineering-salcete-goa-462143</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>[{'id': 1210345, 'name': 'Techyon 2022', 'designation': None, 'contact_no': None, 'contactable_id': 462143, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'techyonpcce2022@gmail.com'}, {'id': 1212109, 'name': 'Kanchan Patil', 'designation': None, 'contact_no': '+918208069554', 'contactable_id': 462143, 'contactable_type': 'App\\Model\\Opportunity', 'email': None}, {'id': 1212110, 'name': 'Vailanka Dias', 'designation': None, 'contact_no': '+919371834101', 'contactable_id': 462143, 'contactable_type': 'App\\Model\\Opportunity', 'email': None}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/datahack-powered-by-oneshield-techyon-2022-padre-conceicao-college-of-engineering-salcete-goa-462203</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>[{'id': 1211581, 'name': 'Techyon 2022', 'designation': None, 'contact_no': None, 'contactable_id': 462203, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'techyonpcce2022@gmail.com'}, {'id': 1211582, 'name': 'Aayush Anand', 'designation': None, 'contact_no': '+917666023650', 'contactable_id': 462203, 'contactable_type': 'App\\Model\\Opportunity', 'email': None}, {'id': 1211583, 'name': 'Ridhi Jha', 'designation': None, 'contact_no': '+919307959413', 'contactable_id': 462203, 'contactable_type': 'App\\Model\\Opportunity', 'email': None}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/walmart-sparkplug-2022-walmart-global-tech-in-india-461069</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>[{'id': 1209312, 'name': 'Helpdesk', 'designation': None, 'contact_no': '', 'contactable_id': 461069, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'support@unstop.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hackx-indian-institute-of-technology-iit-ism-dhanbad-461448</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>[{'id': 1209601, 'name': 'Aman Pandey', 'designation': None, 'contact_no': '+917757897084', 'contactable_id': 461448, 'contactable_type': 'App\\Model\\Opportunity', 'email': '20je0109@pe.iitism.ac.in'}, {'id': 1209602, 'name': 'Shreyansh Jain', 'designation': None, 'contact_no': '+917003968184', 'contactable_id': 461448, 'contactable_type': 'App\\Model\\Opportunity', 'email': '20je0924@mech.iitism.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/proxy22-government-engineering-college-gec-thrissur-458218</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>[{'id': 1205642, 'name': 'Rishika Raveendran', 'designation': None, 'contact_no': '+919446203165', 'contactable_id': 458218, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'proxy.csegect@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/bits-pilani-postman-hackathon-20-birla-institute-of-technology-science-bits-pilani-448792</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>[{'id': 1196927, 'name': 'BITS Pilani Postman API and Coding Innovation Lab', 'designation': None, 'contact_no': '+919407095716', 'contactable_id': 448792, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'bits-postman-lab@pilani.bits-pilani.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>https://unstop.com/hackathon/designomics-20-ieee-day-guru-tegh-bahadur-institute-of-technology-gtbit-new-delhi-454988</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>[{'id': 1201753, 'name': 'Shreyansh Swami', 'designation': None, 'contact_no': None, 'contactable_id': 454988, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'shreyansh.swami@ieee.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/vj-hackathon-2022-victory-joy-in-smart-innovations-vallurupalli-nageswara-rao-vignana-jyothi-institute-of-engi-455607</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>[{'id': 1202770, 'name': 'S Yahwanth', 'designation': None, 'contact_no': '9515663123', 'contactable_id': 455607, 'contactable_type': 'App\\Model\\Opportunity', 'email': None}, {'id': 1202771, 'name': 'K Praveen', 'designation': None, 'contact_no': '8688732971', 'contactable_id': 455607, 'contactable_type': 'App\\Model\\Opportunity', 'email': None}, {'id': 1202772, 'name': 'K Sushma', 'designation': None, 'contact_no': '7075748018', 'contactable_id': 455607, 'contactable_type': 'App\\Model\\Opportunity', 'email': None}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/space-o-analytics-national-institute-of-technology-nit-trichy-454155</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>[{'id': 1201186, 'name': 'Nakshatra NITT', 'designation': None, 'contact_no': None, 'contactable_id': 454155, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'nakshatranitt@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/eesas-hacktech-2022-galgotias-college-of-engineering-technology-gcet-greater-noida-453927</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>[{'id': 1201057, 'name': 'Vaibhav Ujjwal', 'designation': None, 'contact_no': '+917905649134', 'contactable_id': 453927, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'vktripathi254@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/web-war-20-ieee-day-institute-of-electrical-and-electronics-engineers-gtbit-446775</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>[{'id': 1194817, 'name': 'Ikjyot Singh', 'designation': None, 'contact_no': None, 'contactable_id': 446775, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ikjyot.cse1@gmail.com'}, {'id': 1194685, 'name': 'Bhavika', 'designation': None, 'contact_no': None, 'contactable_id': 446775, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'bhavikag001@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/entrepreneurial-hackathon-institute-of-chemical-technology-mumbai-indian-oil-odisha-campus-449744</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>[{'id': 1197656, 'name': 'e-Cell', 'designation': None, 'contact_no': '+919861175711', 'contactable_id': 449744, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'e-cell@stuiocb.ictmumbai.edu.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/blitzkrieg-ieee-day-institute-of-electrical-and-electronics-engineers-gtbit-447225</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>[{'id': 1195181, 'name': 'Shreyansh Swami', 'designation': None, 'contact_no': '+918800141816', 'contactable_id': 447225, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'shreyansh.swami@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/codeknight-jawaharlal-nehru-technological-university-gurajada-vizianagaram-447363</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>[{'id': 1195312, 'name': 'Mohammad Sameer', 'designation': None, 'contact_no': None, 'contactable_id': 447363, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'sameermd6143@gmail.com'}, {'id': 1197027, 'name': 'Bandi Gopi Chand', 'designation': None, 'contact_no': '', 'contactable_id': 447363, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'hurrywin111@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/errorterror-manipal-university-mu-jaipur-449049</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>[{'id': 1197132, 'name': 'Divya Srivastva', 'designation': None, 'contact_no': '+919108026392', 'contactable_id': 449049, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'dsrivastva03@gmail.com'}, {'id': 1197138, 'name': 'Mehul Singhvi', 'designation': None, 'contact_no': '7976955384', 'contactable_id': 449049, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'singhvi2002@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/code-it-on-manipal-university-mu-jaipur-448770</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>[{'id': 1196908, 'name': 'Divya Srivastva', 'designation': None, 'contact_no': '9108026392', 'contactable_id': 448770, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'dsrivastva03@gmail.com'}, {'id': 1196909, 'name': 'Vedika Parwal', 'designation': None, 'contact_no': '9810835827', 'contactable_id': 448770, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'vedikajai1930@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/wecode-coding-contest-20-graphic-era-hill-university-gehu-bhimtal-448964</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>[{'id': 1197053, 'name': 'Himanshu Singh', 'designation': None, 'contact_no': '+919161735718', 'contactable_id': 448964, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'rajputhimanshusingh2002@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/creation-of-telegram-bot-in-python-for-data-logging-edgein-448722</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>[{'id': 1196861, 'name': 'Ricardo Rivero', 'designation': None, 'contact_no': None, 'contactable_id': 448722, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ricardo@edgein.io'}, {'id': 1197179, 'name': 'Ashley Brown', 'designation': None, 'contact_no': None, 'contactable_id': 448722, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ashley@edgein.io'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/woxsen-x-agzistence-hackathon-challenge-agritech-woxsen-university-hyderabad-445707</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>[{'id': 1193629, 'name': 'Rajesh Kumar K V', 'designation': None, 'contact_no': '+918919195907', 'contactable_id': 445707, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'rajesh.kumar@woxsen.edu.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/clone-the-app-manipal-university-mu-jaipur-448784</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>[{'id': 1196921, 'name': 'Divya Srivastva', 'designation': None, 'contact_no': '+919108026392', 'contactable_id': 448784, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'dsrivastva03@gmail.com'}, {'id': 1196925, 'name': 'Mehul Singhvi', 'designation': None, 'contact_no': '7976955384', 'contactable_id': 448784, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'singhvi2002@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/code-debugging-competition-uphoria-x-zenevia-bennett-university-bu-greater-noida-440421</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>[{'id': 1188589, 'name': 'Harshvardhan Aditya', 'designation': None, 'contact_no': '8208384744', 'contactable_id': 440421, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'uphoria.zenevia@bennett.edu.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/spc-juniors-competitive-programming-shaastra-2023-indian-institute-of-technology-iit-madras-447753</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>[{'id': 1195645, 'name': 'Athish Pranav D', 'designation': None, 'contact_no': '+919444123023', 'contactable_id': 447753, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'cs21b011@smail.iitm.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/fleet-risk-bussiness-insight-build-a-ml-model-using-federated-learning-technologies-and-telematics-data-for-fl-447852</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>[{'id': 1195709, 'name': 'Chinmaya Kumar Behera', 'designation': None, 'contact_no': '7894080739', 'contactable_id': 447852, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'chinmaya.techfest@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/game-jam-tantrafiesta-2022-indian-institute-of-information-technology-iiit-nagpur-446271</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>[{'id': 1194205, 'name': 'Kush Waikar', 'designation': None, 'contact_no': '+917498854016', 'contactable_id': 446271, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'kushwaikar@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/evitalize22-powering-whats-next-delhi-skill-and-entrepreneurship-university-delhi-443466</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>[{'id': 1191517, 'name': 'Kshitij Singh', 'designation': None, 'contact_no': '+917907482987', 'contactable_id': 443466, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'kshitij.singh@dseu.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/code-red-20-hackathon-code-red-20-triathlon-vivekananda-global-university-vgu-jaipur-rajasthan-440058</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>[{'id': 1188442, 'name': 'Avi Aggarwal', 'designation': None, 'contact_no': '', 'contactable_id': 440058, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'avi.acic@vgu.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/ideathon-20-national-b-plan-competition-kalinga-university-raipur-443793</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>[{'id': 1191750, 'name': 'Mr. Naveen Kumar Gupta', 'designation': None, 'contact_no': '9932233726', 'contactable_id': 443793, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}, {'id': 1191751, 'name': 'Ms. Sanjana Pratap', 'designation': None, 'contact_no': '9039443418', 'contactable_id': 443793, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}, {'id': 1191707, 'name': 'Prof. Jasmine Joshi', 'designation': None, 'contact_no': '9329352591', 'contactable_id': 443793, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'jasmine.joshi@kalingauniversity.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/capture-the-flag-uphoria-x-zenevia-bennett-university-bu-greater-noida-440431</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>[{'id': 1194521, 'name': 'Support Team', 'designation': None, 'contact_no': None, 'contactable_id': 440431, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'support@bu-fest.in'}, {'id': 1194522, 'name': 'Ansh Jain', 'designation': None, 'contact_no': '7011236187', 'contactable_id': 440431, 'contactable_type': 'App\\Model\\Opportunity', 'email': None}, {'id': 1194523, 'name': 'Saksham Johari', 'designation': None, 'contact_no': '8840417748', 'contactable_id': 440431, 'contactable_type': 'App\\Model\\Opportunity', 'email': None}, {'id': 1188592, 'name': 'Organizing Team', 'designation': None, 'contact_no': None, 'contactable_id': 440431, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'uphoria.zenevia@bennett.edu.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/maymay-meme-humour-event-tantrafiesta-2022-indian-institute-of-information-technology-iiit-nagpur-443597</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>[{'id': 1191700, 'name': 'Vishal Goyal', 'designation': None, 'contact_no': '+917231836153', 'contactable_id': 443597, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'bt20cse134@iiitn.ac.in'}, {'id': 1191701, 'name': 'Shubhasri Tadepalli', 'designation': None, 'contact_no': '8179498598', 'contactable_id': 443597, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'bt20cse061@iiitn.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/design-a-thon-tantrafiesta-2022-indian-institute-of-information-technology-iiit-nagpur-440534</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>[{'id': 1188654, 'name': 'Mohit Kothari', 'designation': None, 'contact_no': None, 'contactable_id': 440534, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'bt20ece004@iiitn.ac.in'}, {'id': 1188659, 'name': 'Shobhit Kumar', 'designation': None, 'contact_no': None, 'contactable_id': 440534, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'bt20cse032@iiitn.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/ideathon-innerve-2022-indira-gandhi-delhi-technical-university-for-women-igdtuw-delhi-442572</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>[{'id': 1190660, 'name': 'Ideathon', 'designation': None, 'contact_no': '', 'contactable_id': 442572, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ideathon02@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/midgequest-innerve-2022-indira-gandhi-delhi-technical-university-for-women-igdtuw-delhi-441813</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>[{'id': 1190098, 'name': 'MidgeQuest', 'designation': None, 'contact_no': '', 'contactable_id': 441813, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'midgequest.ece@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/tc-hackathon-20-techcurators-441384</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>[{'id': 1189570, 'name': 'TechCurators', 'designation': None, 'contact_no': '+917394024708', 'contactable_id': 441384, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'corporate@techcurators.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/wecode-coding-contest-19-graphic-era-hill-university-gehu-bhimtal-440636</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>[{'id': 1188700, 'name': 'Parul Singh', 'designation': None, 'contact_no': '+918869027833', 'contactable_id': 440636, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'parul132003@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/designathon-elicit22-manipal-university-mu-jaipur-440351</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>[{'id': 1188555, 'name': 'Harshit Shah', 'designation': None, 'contact_no': '+918369727289', 'contactable_id': 440351, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'harshit.219310180@muj.manipal.edu'}, {'id': 1188556, 'name': 'Soham Dixit', 'designation': None, 'contact_no': '9315237350', 'contactable_id': 440351, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'soham.219301133@muj.manipal.edu'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/infinity-perplex-technovate-2022-international-institute-of-information-technology-iiit-naya-raipur-439935</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>[{'id': 1188346, 'name': 'IIIT Naya Raipur', 'designation': None, 'contact_no': '9763214185', 'contactable_id': 439935, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'technovate@iiitnr.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/bug-bash-technovate-2022-international-institute-of-information-technology-iiit-naya-raipur-439868</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>[{'id': 1188320, 'name': 'IIIT Naya Raipur', 'designation': None, 'contact_no': '9340758510', 'contactable_id': 439868, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'technovate@iiitnr.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hacknovate-technovate-2022-international-institute-of-information-technology-iiit-naya-raipur-440060</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>[{'id': 1188443, 'name': 'IIIT Naya Raipur', 'designation': None, 'contact_no': '9425425099', 'contactable_id': 440060, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'technovate@iiitnr.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/sparkathon-2022-ia-labs-439058</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>[{'id': 1187888, 'name': 'Maninder Singh Bawa', 'designation': None, 'contact_no': '+918468881281', 'contactable_id': 439058, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'maninder.singh.bawa@ialabs.co.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/ieees-hack-bvicam-bharati-vidyapeeths-institute-of-computer-applications-and-management-bvicam-new-delhi-439902</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>[{'id': 1188329, 'name': 'Yatin Dhawan', 'designation': None, 'contact_no': '8800282376', 'contactable_id': 439902, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'hack.bvicam@gmail.com'}, {'id': 1188330, 'name': 'Mohit Aneja', 'designation': None, 'contact_no': '9582602603', 'contactable_id': 439902, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'hack.bvicam@gmail.com'}, {'id': 1188331, 'name': 'Shivam Jain', 'designation': None, 'contact_no': '9990339112', 'contactable_id': 439902, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'hack.bvicam@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hack-crypto-technovate-2022-international-institute-of-information-technology-iiit-naya-raipur-439912</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>[{'id': 1188334, 'name': 'IIIT Naya Raipur', 'designation': None, 'contact_no': '9129114550', 'contactable_id': 439912, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'technovate@iiitnr.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hackncrack-techbairn-438842</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>[{'id': 1187845, 'name': 'Techbairn', 'designation': None, 'contact_no': '+919102485981', 'contactable_id': 438842, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'hello@techbairn.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/defi-hacks-elicit22-manipal-university-mu-jaipur-439237</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>[{'id': 1187980, 'name': 'Harshit Shah', 'designation': None, 'contact_no': '+918369727289', 'contactable_id': 439237, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'harshit.219310180@muj.manipal.edu'}, {'id': 1187981, 'name': 'Soham Dixit', 'designation': None, 'contact_no': '9315237350', 'contactable_id': 439237, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'soham.219301133@muj.manipal.edu'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/nasa-international-space-apps-challenge-aaruush-srm-institute-of-science-and-technology-srmist-kattankulathur--436656</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>[{'id': 1186939, 'name': 'Aaruush', 'designation': None, 'contact_no': '+916383849872', 'contactable_id': 436656, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'csipch@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/wecode-coding-contest-18-graphic-era-hill-university-gehu-bhimtal-439270</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>[{'id': 1187998, 'name': 'Himanshu Singh', 'designation': None, 'contact_no': '+919161735718', 'contactable_id': 439270, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'rajputhimanshusingh2002@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/dealshare-codeforbillion-dealshare-433463</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>[{'id': 1184075, 'name': 'Helpdesk', 'designation': None, 'contact_no': '', 'contactable_id': 433463, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'support@unstop.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/starter-pack-student-40-innerve-2022-indira-gandhi-delhi-technical-university-for-women-igdtuw-delhi-435831</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>[{'id': 1185974, 'name': 'Charvi', 'designation': None, 'contact_no': '+918595681301', 'contactable_id': 435831, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'charvi058btit20@igdtuw.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/bugsandbyte-riskcovry-435723</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>[{'id': 1187918, 'name': 'Parag Jamdar', 'designation': None, 'contact_no': '+919689640902', 'contactable_id': 435723, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'parag.jamdar@riskcovry.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/muj-hacks-70-elicit22-manipal-university-mu-jaipur-439018</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>[{'id': 1187882, 'name': 'Abhinav Sharma', 'designation': None, 'contact_no': '+918979048383', 'contactable_id': 439018, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'abhisharma4947@gmail.com'}, {'id': 1187883, 'name': 'Aryaman Sahay', 'designation': None, 'contact_no': '9652378882', 'contactable_id': 439018, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'aryaman.chair@acm.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hybrid-hack-aaruush-srm-institute-of-science-and-technology-srmist-kattankulathur-chennai-srm-institute-of-sci-438278</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>[{'id': 1187651, 'name': 'Aaruush', 'designation': None, 'contact_no': '+916383849872', 'contactable_id': 438278, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'csipch@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/quant-a-maze-2022-nitte-meenakshi-institute-of-technology-nmit-yelahanka-432616</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>[{'id': 1182904, 'name': 'Suman Mondal', 'designation': None, 'contact_no': '+918777035448', 'contactable_id': 432616, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'mondal.suman9904@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/wecode-coding-contest-17-graphic-era-hill-university-gehu-bhimtal-435585</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>[{'id': 1185638, 'name': 'Parul Singh', 'designation': None, 'contact_no': '+918869027833', 'contactable_id': 435585, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'parul132003@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/ideate2sustain-indira-gandhi-delhi-technical-university-for-women-igdtuw-delhi-433574</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>[{'id': 1184086, 'name': 'Cognito SDG', 'designation': None, 'contact_no': '', 'contactable_id': 433574, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'cognitosdg@gmail.com'}, {'id': 1184087, 'name': 'CSD, IGDTUW', 'designation': None, 'contact_no': '', 'contactable_id': 433574, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'sakhi@igdtuw.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hawk-the-log-retail-dataset-competition-interface-2022-birla-institute-of-technology-science-bits-pilani-436615</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>[{'id': 1186864, 'name': 'Ashish Karanje', 'designation': None, 'contact_no': '9730610610', 'contactable_id': 436615, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'bitsoperationsclub@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/erudite-innerve-2022-indira-gandhi-delhi-technical-university-for-women-igdtuw-delhi-435598</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>[{'id': 1185632, 'name': 'The Arc', 'designation': None, 'contact_no': '', 'contactable_id': 435598, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'thearc.datascience@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hackme-tantrafiesta-2022-indian-institute-of-information-technology-iiit-nagpur-434729</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>[{'id': 1185181, 'name': 'TantraFiesta IIIT Nagpur', 'designation': None, 'contact_no': '8240116309', 'contactable_id': 434729, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'tantrafiesta@iiitn.ac.in'}, {'id': 1185314, 'name': 'Skills Nights', 'designation': None, 'contact_no': '9016356964', 'contactable_id': 434729, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'skillsnights@iiitn.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/innerve-hacks-2022-innerve-2022-indira-gandhi-delhi-technical-university-for-women-igdtuw-delhi-432613</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>[{'id': 1182838, 'name': 'Innerve Hacks', 'designation': None, 'contact_no': '7428689631', 'contactable_id': 432613, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'innervehacks22@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/picklais-datathon-1-pickl-424925</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>[{'id': 1175446, 'name': 'Shailabh Verma', 'designation': None, 'contact_no': '+918083663467', 'contactable_id': 424925, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'knowledge@pickl.ai'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/biz-viz-interface-2022-birla-institute-of-technology-science-bits-pilani-431650</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>[{'id': 1181477, 'name': 'Techgeeks Club', 'designation': None, 'contact_no': '', 'contactable_id': 431650, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'techgeeksclub.bitsp@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/wecode-coding-contest-graphic-era-hill-university-gehu-bhimtal-430871</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>[{'id': 1180961, 'name': 'Himanshu Singh', 'designation': None, 'contact_no': '+919161735718', 'contactable_id': 430871, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'rajputhimanshusingh2002@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/runtime-terror-30-national-institute-of-technology-nit-durgapur-431767</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>[{'id': 1182211, 'name': 'Divyanshu Kumar', 'designation': None, 'contact_no': '+918864071829', 'contactable_id': 431767, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'divyanshu3112002@gmail.com'}, {'id': 1182212, 'name': 'Abhishek Krishna', 'designation': None, 'contact_no': '7702497874', 'contactable_id': 431767, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'abhidev0402@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/what-the-hack-manipal-university-mu-jaipur-430906</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>[{'id': 1180981, 'name': 'Ridhi Makharia', 'designation': None, 'contact_no': '+919739308062', 'contactable_id': 430906, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ridhimakharia123@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/webknight-techbairn-430185</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>[{'id': 1180363, 'name': 'Saumya', 'designation': None, 'contact_no': '7605912845', 'contactable_id': 430185, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'hello@techbairn.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/break-the-code-rajkiya-engineering-college-rec-ambedkar-nagar-uttar-pradesh-426346</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>[{'id': 1176964, 'name': 'Noor Mohammad', 'designation': None, 'contact_no': '+919305215701', 'contactable_id': 426346, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'noormd112002@gmail.com'}, {'id': 1176965, 'name': 'Amit Kumar', 'designation': None, 'contact_no': '6393577593', 'contactable_id': 426346, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'kumar01072000amit@gmail.com'}, {'id': 1176966, 'name': 'Prashant Singh', 'designation': None, 'contact_no': '8739023381', 'contactable_id': 426346, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'erprashant2210@gmail.com'}, {'id': 1176968, 'name': 'Manas Singhal', 'designation': None, 'contact_no': '7983920884', 'contactable_id': 426346, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'manassinghal77@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/manipal-hackathon-2022-manipal-institute-of-technology-mit-manipal-414821</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>[{'id': 1173038, 'name': 'Kiran Kishor', 'designation': None, 'contact_no': '9074470073', 'contactable_id': 414821, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'hackathon.techtatva22@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/wecode-coding-contest-graphic-era-hill-university-gehu-bhimtal-423772</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>[{'id': 1173961, 'name': 'Parul Singh', 'designation': None, 'contact_no': '+918869027833', 'contactable_id': 423772, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'parul132003@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/block-de-crypt-indian-institute-of-technology-iit-kharagpur-423282</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>[{'id': 1173071, 'name': 'Diptendu Sarkar', 'designation': None, 'contact_no': '9330267460', 'contactable_id': 423282, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'diptendu.sarkar@ecell-iitkgp.org'}, {'id': 1173072, 'name': 'Siddhant Vardhan Mehta', 'designation': None, 'contact_no': '8824004041', 'contactable_id': 423282, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'siddhant.vardhan@ecell-iitkgp.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/flip-the-script-challenge-epam-systems-inc-361380</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>[{'id': 1103453, 'name': 'Helpdesk', 'designation': None, 'contact_no': '', 'contactable_id': 361380, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'support@unstop.com'}, {'id': 1104045, 'name': 'EPAM HR Team', 'designation': None, 'contact_no': '', 'contactable_id': 361380, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'epam-rdin_hiring@epam.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/flip-the-script-challenge-epam-systems-inc-361405</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>[{'id': 1103457, 'name': 'Helpdesk', 'designation': None, 'contact_no': '', 'contactable_id': 361405, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'support@unstop.com'}, {'id': 1104047, 'name': 'EPAM HR Team', 'designation': None, 'contact_no': '', 'contactable_id': 361405, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'epam-rdin_hiring@epam.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/buidl-for-web3-hackathon-2022-lumos-labs-413149</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>[{'id': 1162510, 'name': 'Nikhil Aparajit', 'designation': None, 'contact_no': '+918888135188', 'contactable_id': 413149, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'nikhil@lumoslabs.co'}, {'id': 1175017, 'name': 'Alyasa Haider', 'designation': None, 'contact_no': None, 'contactable_id': 413149, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'alyasa@lumoslabs.co'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/we-code-coding-contest-14-graphic-era-hill-university-gehu-bhimtal-416274</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>[{'id': 1166404, 'name': 'Mayank Joshi', 'designation': None, 'contact_no': '+917248269968', 'contactable_id': 416274, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'mayankjan2002@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/google-kickstart-discussion-g-pulla-reddy-engineering-college-gprec-kurnool-412102</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>[{'id': 1160464, 'name': 'J Prem', 'designation': None, 'contact_no': '+919502540816', 'contactable_id': 412102, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'premj801@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/make-it-happen-institute-of-electrical-and-electronics-engineers-gtbit-411949</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>[{'id': 1160299, 'name': 'Rohan Singh', 'designation': None, 'contact_no': '9718447777', 'contactable_id': 411949, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'rohansingh@ieee.org'}, {'id': 1160300, 'name': 'Mohan Kaushik', 'designation': None, 'contact_no': '7982521243', 'contactable_id': 411949, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'mohankaushik0026@gmail.com'}, {'id': 1160332, 'name': 'Bhavika', 'designation': None, 'contact_no': '8368326541', 'contactable_id': 411949, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'bhavikag001@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hackoverflow-codevita-live-408912</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>[{'id': 1156339, 'name': 'Codevita Live', 'designation': None, 'contact_no': '', 'contactable_id': 408912, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'studentconnect@codevitalive.tech'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hackathon-e-summit22-e-summit22-indian-institute-of-technology-iit-indore-405744</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>[{'id': 1152544, 'name': 'Soham Roy', 'designation': None, 'contact_no': '9039172799', 'contactable_id': 405744, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'me200003072@iiti.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hack4soc-where-technology-meets-humanity-rv-college-of-engineering-rvce-bangalore-405582</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>[{'id': 1151620, 'name': 'Shubhaprada K P', 'designation': None, 'contact_no': '+919663742226', 'contactable_id': 405582, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'shubhapradakp.cs20@rvce.edu.in'}, {'id': 1152381, 'name': 'Samhitha S', 'designation': None, 'contact_no': '8296521659', 'contactable_id': 405582, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'samhiths.cs20@rvce.edu.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/web-d-verse-bharati-vidyapeeths-college-of-engineering-bvcoe-new-delhi-404419</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>[{'id': 1150007, 'name': 'MLSAC BVP', 'designation': None, 'contact_no': '', 'contactable_id': 404419, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'mlsacbvp@outlook.com'}, {'id': 1150008, 'name': 'Udit', 'designation': None, 'contact_no': '7982086808', 'contactable_id': 404419, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}, {'id': 1150009, 'name': 'Vaijayanthi', 'designation': None, 'contact_no': '9968535747', 'contactable_id': 404419, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/coderelay-indian-institute-of-technology-iit-bhubaneswar-403540</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>[{'id': 1148750, 'name': 'Chirag Garg', 'designation': None, 'contact_no': '+918865986040', 'contactable_id': 403540, 'contactable_type': 'App\\Model\\Opportunity', 'email': '20ce01011@iitbbs.ac.in'}, {'id': 1150168, 'name': 'Shashwat Singh', 'designation': None, 'contact_no': '7985417601', 'contactable_id': 403540, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'secyweb.sg@iitbbs.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/error404-hackathon-mentor-registration-micro-organization-402780</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>[{'id': 1146969, 'name': 'Prathima Kadari', 'designation': None, 'contact_no': '+917901087712', 'contactable_id': 402780, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'prathima@getmicro.co'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/error404-hackathon-participant-registration-error404-hackathon-organized-by-micro-micro-organization-402775</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>[{'id': 1146967, 'name': 'Prathima Kadari', 'designation': None, 'contact_no': '+917901087712', 'contactable_id': 402775, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'prathima@getmicro.co'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/coding-conquest-2022-school-of-engineering-and-technology-sushant-university-gurgaon-402848</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>[{'id': 1147264, 'name': 'Code Conquerors Club', 'designation': None, 'contact_no': '', 'contactable_id': 402848, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ccc@sushantuniversity.edu.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/navi-hackerverse-navi-397265</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>[{'id': 1139839, 'name': 'Helpdesk', 'designation': None, 'contact_no': '', 'contactable_id': 397265, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'support@unstop.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/technoledgica-coding-challenge-g-pulla-reddy-engineering-college-gprec-kurnool-343936</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>[{'id': 1092517, 'name': 'Bandi Padma Sree', 'designation': None, 'contact_no': '', 'contactable_id': 343936, 'contactable_type': 'App\\Model\\Opportunity', 'email': '189x1a0506@gprec.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/blind-coding-technosummit-2k22-sathyabama-university-sbu-chennai-387807</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>[{'id': 1129967, 'name': 'Mr.Dhaneeswar', 'designation': None, 'contact_no': '8870327336', 'contactable_id': 387807, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}, {'id': 1129968, 'name': 'Mr.Jagadeesh', 'designation': None, 'contact_no': '8341291871', 'contactable_id': 387807, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/teens-for-tomorrow-faqtorial-383393</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>[{'id': 1126244, 'name': 'Faqtorial Club', 'designation': None, 'contact_no': '+918920578088', 'contactable_id': 383393, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'Hello@faqtorial.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hackaversumm22-maharishi-markandeshwar-university-mullana-383383</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>[{'id': 1125154, 'name': 'Deekshant Goyal', 'designation': None, 'contact_no': '9817886459', 'contactable_id': 383383, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'deekshantgoyal63@gmail.com'}, {'id': 1125155, 'name': 'Chahat', 'designation': None, 'contact_no': '9518047690', 'contactable_id': 383383, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'cp2112001@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/pclub-summer-of-code-university-institute-of-engineering-and-technology-uiet-chandigarh-381665</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>[{'id': 1123208, 'name': 'Kanishk Tyagi', 'designation': None, 'contact_no': '', 'contactable_id': 381665, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'pclubuiet@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/codefury-50-university-visvesvaraya-college-of-engineering-uvce-bangalore-380929</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>[{'id': 1122151, 'name': 'Girish Bharadwaj', 'designation': None, 'contact_no': '7406543569', 'contactable_id': 380929, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'girishbharadwaj@ieee.org'}, {'id': 1122152, 'name': 'Samyuktha Sridhar', 'designation': None, 'contact_no': '9108562257', 'contactable_id': 380929, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'samyuktha.sridhar@ieee.org'}, {'id': 1122153, 'name': 'Shamanth G M ', 'designation': None, 'contact_no': '8217343931', 'contactable_id': 380929, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'shamanthgm3@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/atheneum-indira-gandhi-delhi-technical-university-for-women-igdtuw-delhi-376082</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>[{'id': 1117268, 'name': 'Priya Sharma', 'designation': None, 'contact_no': '', 'contactable_id': 376082, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'priya@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/wezbohacks-wezbo-376966</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>[{'id': 1117207, 'name': 'Anchal Sachan', 'designation': None, 'contact_no': '+918929784992', 'contactable_id': 376966, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'hr@wezbo.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/out-of-context-website-development-hackathon-codevita-live-377073</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>[{'id': 1117432, 'name': 'Pramod', 'designation': None, 'contact_no': '', 'contactable_id': 377073, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'studentconnect@codevitalive.tech'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/multimedia-signal-processing-cup-2022-msp-cup-2022-sarvajanik-college-of-engineering-and-technology-scet-surat-373738</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>[{'id': 1113967, 'name': 'IEEE SPS SCET SB Chapter', 'designation': None, 'contact_no': '', 'contactable_id': 373738, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'spssb@scet.ac.in'}, {'id': 1113968, 'name': 'Muskan Jhawar', 'designation': None, 'contact_no': '7202095213', 'contactable_id': 373738, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'muskanjhawar@ieee.org'}, {'id': 1113969, 'name': 'Abanob Bhanu', 'designation': None, 'contact_no': '7043775099', 'contactable_id': 373738, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'abanobbhanu@ieee.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/need-for-code-thadomal-shahani-engineering-college-tsec-mumbai-370203</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>[{'id': 1109413, 'name': 'TSEC CodeTantra', 'designation': None, 'contact_no': '', 'contactable_id': 370203, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'tseccodetantra@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/uiux-design-hackathon-techfoss-2022-toc-h-institute-of-science-and-technology-tist-kerela-368830</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>[{'id': 1107553, 'name': 'Roshan Mathews', 'designation': None, 'contact_no': '+919744230702', 'contactable_id': 368830, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'roshanmathewsofficial@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/devbhoomi-cyber-hackathon-20-uttarakhand-police-government-of-uttarakhand-366291</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>[{'id': 1104661, 'name': 'Ankush Mishra', 'designation': None, 'contact_no': '8860543545', 'contactable_id': 366291, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ankushmish@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/house-of-code-campus-edition-lowes-companies-inc-363650</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>[{'id': 1103948, 'name': 'Helpdesk', 'designation': None, 'contact_no': '', 'contactable_id': 363650, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'support@unstop.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/codefiesta-sir-m-visvesvaraya-institute-of-technology-smvit-bengaluru-364352</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>[{'id': 1104157, 'name': 'Kushagra', 'designation': None, 'contact_no': '9870661438', 'contactable_id': 364352, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}, {'id': 1104158, 'name': 'Harshit', 'designation': None, 'contact_no': '9268223521', 'contactable_id': 364352, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/codegoda-2022-agoda-363015</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>[{'id': 1103823, 'name': 'Helpdesk', 'designation': None, 'contact_no': '', 'contactable_id': 363015, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'support@unstop.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hack-with-ai-10-bv-raju-institute-of-technology-tuljaraopet-telangana-363369</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>[{'id': 1103869, 'name': 'Coding Brigade BVRIT', 'designation': None, 'contact_no': '+916303449924', 'contactable_id': 363369, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'cbb@bvrit.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/code-fin-20-a-coding-quiz-missioned-348292</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>[{'id': 1093837, 'name': 'Shubham Saurav', 'designation': None, 'contact_no': '', 'contactable_id': 348292, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'sssaurav5778@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/codexthon-malaviya-national-institute-of-technology-mnit-jaipur-360380</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>[{'id': 1102319, 'name': 'Ojaswi Agarwal', 'designation': None, 'contact_no': '9461818543', 'contactable_id': 360380, 'contactable_type': 'App\\Model\\Opportunity', 'email': '2020uec1266@mnit.ac.in'}, {'id': 1102320, 'name': 'Gourav Kargwal', 'designation': None, 'contact_no': '7023074548', 'contactable_id': 360380, 'contactable_type': 'App\\Model\\Opportunity', 'email': '2019uch1563@mnit.ac.in'}, {'id': 1102321, 'name': 'Shubham Rai', 'designation': None, 'contact_no': '9519665131', 'contactable_id': 360380, 'contactable_type': 'App\\Model\\Opportunity', 'email': '2019ucp1732@mnit.ac.in'}, {'id': 1102322, 'name': 'Himesh Maniyar', 'designation': None, 'contact_no': '9328512347', 'contactable_id': 360380, 'contactable_type': 'App\\Model\\Opportunity', 'email': '2020ucp1776@mnit.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/code-with-globalshala-30-globalshala-362115</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>[{'id': 1103629, 'name': 'GlobalShala', 'designation': None, 'contact_no': '+919790858036', 'contactable_id': 362115, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'contact@globalshala.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/code-fin-20-a-coding-quiz-light-school-app-361753</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>[{'id': 1103450, 'name': 'Saurav', 'designation': None, 'contact_no': '', 'contactable_id': 361753, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'get.lightschool@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/code-plus-plus-vellore-institute-of-technology-vit-vellore-358587</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>[{'id': 1103352, 'name': 'Sumona Sud', 'designation': None, 'contact_no': '9741582714', 'contactable_id': 358587, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'sumonasud@acm.org'}, {'id': 1103353, 'name': 'Harsh Avinash', 'designation': None, 'contact_no': '6300184214', 'contactable_id': 358587, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'harsh.avinash.official@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hackathon-jumpstart-publicis-sapient-359785</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>[{'id': 1101958, 'name': 'Helpdesk', 'designation': None, 'contact_no': '', 'contactable_id': 359785, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'support@unstop.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/tally-codebrewers-tally-solutions-343510</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>[{'id': 1095627, 'name': 'Helpdesk', 'designation': None, 'contact_no': '', 'contactable_id': 343510, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'support@unstop.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/house-of-code-senior-data-engineer-house-of-code-code-to-possibilities-lowes-companies-inc-360189</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>[{'id': 1102184, 'name': 'Helpdesk', 'designation': None, 'contact_no': '', 'contactable_id': 360189, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'support@unstop.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/ai-hack-22-rns-institute-of-technology-rnsit-bengaluru-359266</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>[{'id': 1101659, 'name': 'Abhishek Murthy', 'designation': None, 'contact_no': '+917899494947', 'contactable_id': 359266, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'abhishekmurthy2301@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/house-of-code-data-engineer-house-of-code-code-to-possibilities-lowes-companies-inc-360188</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>[{'id': 1102181, 'name': 'Helpdesk', 'designation': None, 'contact_no': '', 'contactable_id': 360188, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'support@unstop.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/house-of-code-senior-software-engineer-house-of-code-code-to-possibilities-lowes-companies-inc-360185</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>[{'id': 1102179, 'name': 'Helpdesk', 'designation': None, 'contact_no': '', 'contactable_id': 360185, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'support@support.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/house-of-code-software-engineer-house-of-code-code-to-possibilities-lowes-companies-inc-360179</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>[{'id': 1102177, 'name': 'Helpdesk', 'designation': None, 'contact_no': '', 'contactable_id': 360179, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'support@unstop.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/neohacks-20-neohacks-307315</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>[{'id': 1062355, 'name': 'NeoHacks Organizers', 'designation': None, 'contact_no': '', 'contactable_id': 307315, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'info@neohacks.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/smartideathon-2022-smartideathon-2022-gandhi-institute-of-technology-and-management-gitam-visakhapatnam-andhra-359658</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>[{'id': 1101882, 'name': 'Mahesh Varier', 'designation': None, 'contact_no': '9036217587', 'contactable_id': 359658, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'smartideathon@gitam.edu'}, {'id': 1101883, 'name': 'Raja Kumar Bollem', 'designation': None, 'contact_no': '9704645434', 'contactable_id': 359658, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'rbollem@gitam.edu'}, {'id': 1101884, 'name': 'Vikas Kumar Srivastav', 'designation': None, 'contact_no': '7989253780', 'contactable_id': 359658, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'vsrivast@gitam.edu'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/code-matrix-national-institute-of-technology-nit-mizoram-359284</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>[{'id': 1101724, 'name': 'NITMZ Unstop Club', 'designation': None, 'contact_no': '', 'contactable_id': 359284, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'nitmz.d2cigniters@gmail.com'}, {'id': 1101725, 'name': 'Niraj Kumar', 'designation': None, 'contact_no': '9602424706', 'contactable_id': 359284, 'contactable_type': 'App\\Model\\Opportunity', 'email': '1751nk@gmail.com'}, {'id': 1101726, 'name': 'Sharda Kumari', 'designation': None, 'contact_no': '7480022529', 'contactable_id': 359284, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'shardakumari505@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/websitemobile-application-development-national-institute-of-technology-nit-mizoram-359412</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>[{'id': 1101823, 'name': 'NITMZ Unstop Club', 'designation': None, 'contact_no': '+918271367165', 'contactable_id': 359412, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'nitmz.d2cigniters@gmail.com'}, {'id': 1101824, 'name': 'Niraj Kumar', 'designation': None, 'contact_no': '9602424706', 'contactable_id': 359412, 'contactable_type': 'App\\Model\\Opportunity', 'email': '1751nk@gmail.com'}, {'id': 1101825, 'name': 'Sharda Kumari', 'designation': None, 'contact_no': '7480022529', 'contactable_id': 359412, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'shardakumari505@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/wikispeedia-elysia-2022-sjb-institute-of-technology-sjbit-bengaluru-357052</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>[{'id': 1099713, 'name': 'Anzar shah', 'designation': None, 'contact_no': '+919622102764', 'contactable_id': 357052, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'anzarshah43@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/rookie-of-the-year-scavenger-hunt-elysia-2022-sjb-institute-of-technology-sjbit-bengaluru-357055</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>[{'id': 1099717, 'name': 'Anzar shah', 'designation': None, 'contact_no': '+919622102764', 'contactable_id': 357055, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'anzarshah43@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/dsa-an-essential-component-for-placement-emancipation-edutech-private-limited-355061</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>[{'id': 1099613, 'name': 'Ranjan Tiwari', 'designation': None, 'contact_no': '+919264477176', 'contactable_id': 355061, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'admin@emancipation.co.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/flipkart-grid-40-information-security-challenge-flipkart-grid-40-flipkart-349611</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>[{'id': 1094992, 'name': 'Helpdesk', 'designation': None, 'contact_no': '', 'contactable_id': 349611, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'support@unstop.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/flipkart-grid-40-software-development-challenge-flipkart-grid-40-flipkart-348170</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>[{'id': 1095124, 'name': 'Helpdesk', 'designation': None, 'contact_no': '', 'contactable_id': 348170, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'support@unstop.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/pythakon22-charotar-university-of-science-and-technology-gujarat-338854</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>[{'id': 1089778, 'name': 'Club Gamma', 'designation': None, 'contact_no': '+919978702059', 'contactable_id': 338854, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'info.clubgamma@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/air-quality-data-science-hackathon-madras-institute-of-technology-mit-anna-university-chennai-tamil-nadu-332815</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>[{'id': 1094333, 'name': 'Shrayas K R', 'designation': None, 'contact_no': '+918754491469', 'contactable_id': 332815, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'krshrayas@gmail.com'}, {'id': 1096048, 'name': 'Naija R C', 'designation': None, 'contact_no': '8300678116', 'contactable_id': 332815, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'naijaramasamy@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hackademic-2022-manipal-university-mu-jaipur-339076</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>[{'id': 1088063, 'name': 'Atal Incubation Centre Manipal University Jaipur', 'designation': None, 'contact_no': '+919773307012', 'contactable_id': 339076, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'aicmuj@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/data-challenge-ii-henry-harvin-education-328792</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>[{'id': 1079515, 'name': 'Pooja Gupta', 'designation': None, 'contact_no': '', 'contactable_id': 328792, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'pooja@henryharvin.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/fantom-code-rv-institute-of-technology-and-management-336973</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>[{'id': 1085622, 'name': 'Satvik RS', 'designation': None, 'contact_no': '8431094853', 'contactable_id': 336973, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'fantomcode.rvitm@rvei.edu.in'}, {'id': 1085785, 'name': 'Akash Kiran', 'designation': None, 'contact_no': '9071331155', 'contactable_id': 336973, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'askfantomcode.rvitm@rvei.edu.in'}, {'id': 1085786, 'name': 'B B Satvik ', 'designation': None, 'contact_no': '8639344013', 'contactable_id': 336973, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'satvikbb_is19.rvitm@rvei.edu.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/imacathon-all-wrapped-in-one-birla-institute-of-technology-bit-deoghar-336686</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>[{'id': 1085455, 'name': 'Google Developer Student Club BITD', 'designation': None, 'contact_no': '+919905044115', 'contactable_id': 336686, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'dscbitd20@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/electrathon-electera-2k22-coimbatore-institute-of-technology-cit-coimbatore-324139</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>[{'id': 1075690, 'name': 'Kamalesh Kumar R', 'designation': None, 'contact_no': '9944469342', 'contactable_id': 324139, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}, {'id': 1075691, 'name': 'Mail Us At', 'designation': None, 'contact_no': '', 'contactable_id': 324139, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'electeraevent.cit@gmail.com'}, {'id': 1075692, 'name': 'Preeti Varsa. D', 'designation': None, 'contact_no': '6382302527', 'contactable_id': 324139, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/yet-another-hackathon-2k22-sri-venkateswara-college-of-engineering-svce-tamil-nadu-332587</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>[{'id': 1082320, 'name': 'Nikhilesh', 'designation': None, 'contact_no': '9176550708', 'contactable_id': 332587, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'nikhileshjr08@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/wce-hackathon-2022-walchand-college-of-engineering-wce-sangli-171698</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>[{'id': 1079746, 'name': 'WCE ACM', 'designation': None, 'contact_no': '7387649121', 'contactable_id': 171698, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'wcehackathon@walchandsangli.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/smart-a-thon-ignite-a-thon-seth-jai-parkash-mukand-lal-institute-of-engineering-and-technology-jmit-yamuna-nag-322838</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>[{'id': 1078335, 'name': 'Chakshu', 'designation': None, 'contact_no': '7404505435', 'contactable_id': 322838, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'chakshu1219226@jmit.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hack-for-humanity-canara-college-cc-mangalore-karnataka-325621</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>[{'id': 1076908, 'name': 'P V Paramashiva Karanth', 'designation': None, 'contact_no': '+919481338745', 'contactable_id': 325621, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'paramashivakaranth@gmail.com'}, {'id': 1076909, 'name': 'Udith Bekal', 'designation': None, 'contact_no': '7760522832', 'contactable_id': 325621, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'udithbkl100@gmail.com'}, {'id': 1076910, 'name': 'Rajath Krishna Prabhu', 'designation': None, 'contact_no': '7760929088', 'contactable_id': 325621, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'rajathkrishna0905@gmail.com'}, {'id': 1076911, 'name': 'Sandesh HD', 'designation': None, 'contact_no': '9449036453', 'contactable_id': 325621, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'sandeshhd16@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/intecho-burn-the-code-madras-institute-of-technology-mit-anna-university-chennai-tamil-nadu-280914</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>[{'id': 1055891, 'name': 'Padmanaban', 'designation': None, 'contact_no': '9543555024', 'contactable_id': 280914, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'dev.pdmnhn@gmail.com'}, {'id': 1055892, 'name': 'Vishnu Prasana', 'designation': None, 'contact_no': '9360118511', 'contactable_id': 280914, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'vishnuprasanna14@gmail.com'}, {'id': 1055987, 'name': 'Sriram', 'designation': None, 'contact_no': '7904079343', 'contactable_id': 280914, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'sriram10e21@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/ml-optimus-hackerz-chennai-institute-of-technology-cit-kundrathur-307569</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>[{'id': 1062553, 'name': 'Vasanth', 'designation': None, 'contact_no': '9080338368', 'contactable_id': 307569, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'vasanthpcse2019@citchennai.net'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/tohacks-2022-university-of-toronto-319647</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>[{'id': 1071827, 'name': 'TOHacks', 'designation': None, 'contact_no': '', 'contactable_id': 319647, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'info@tohacks.ca'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/zion-ctf-xpecto-2022-indian-institute-of-technology-iit-mandi-314731</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>[{'id': 1067866, 'name': 'Gaurav Guleria', 'designation': None, 'contact_no': '8800646367', 'contactable_id': 314731, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/frost-hack-xpecto-2022-indian-institute-of-technology-iit-mandi-317008</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>[{'id': 1069815, 'name': 'Pushkar Patel', 'designation': None, 'contact_no': '8588001482', 'contactable_id': 317008, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}, {'id': 1069816, 'name': 'Rijul Jain', 'designation': None, 'contact_no': '9910844346', 'contactable_id': 317008, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/wires-and-wonders-iot-based-event-xpecto-2022-indian-institute-of-technology-iit-mandi-316812</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>[{'id': 1069684, 'name': 'Janani', 'designation': None, 'contact_no': '9003091225', 'contactable_id': 316812, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'b20232@students.iitmandi.ac.in'}, {'id': 1069685, 'name': 'Deepak Shah', 'designation': None, 'contact_no': '9821764691', 'contactable_id': 316812, 'contactable_type': 'App\\Model\\Opportunity', 'email': 't21260@students.iitmandi.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hackurway-envisage-2022-techno-main-salt-lake-kolkata-west-bengal-317036</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>[{'id': 1069919, 'name': 'Envisage TMSL', 'designation': None, 'contact_no': '+919905165799', 'contactable_id': 317036, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'envisagetmsl@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/techpreksha-2022-techparakashha2022-dronacharya-college-of-engineering-dce-farukhnagar-310012</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>[{'id': 1065127, 'name': 'GFG_DCE', 'designation': None, 'contact_no': '+917011189570', 'contactable_id': 310012, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'gfgdce@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/techzibition-iot-cynet22-jagannath-international-management-school-jims-delhi-300013</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>[{'id': 1056052, 'name': 'Akash Jyoti Nath', 'designation': None, 'contact_no': '9954013096', 'contactable_id': 300013, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/frontiers-website-design-cynet22-jagannath-international-management-school-jims-delhi-300017</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>[{'id': 1056118, 'name': 'Dhruv', 'designation': None, 'contact_no': '7529991382', 'contactable_id': 300017, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/angel-hack-delhi-technological-university-dtu-new-delhi-293544</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>[{'id': 1051795, 'name': 'Aaryan Arora', 'designation': None, 'contact_no': '+919650362429', 'contactable_id': 293544, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'aaryan2134@gmail.com'}, {'id': 1051796, 'name': 'Rishit Toteja', 'designation': None, 'contact_no': '8588970916', 'contactable_id': 293544, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'totejarishit262@gmail.com'}, {'id': 1051797, 'name': 'Aditya Kumar', 'designation': None, 'contact_no': '8210744867', 'contactable_id': 293544, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ak511046@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/bid-2-code-melinia-coimbatore-institute-of-technology-cit-coimbatore-289355</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>[{'id': 1051927, 'name': 'Illakkiya', 'designation': None, 'contact_no': '6381704403', 'contactable_id': 289355, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'illakiyagm.03@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/melinia-hackathon-2022-coimbatore-institute-of-technology-cit-coimbatore-288925</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>[{'id': 1048236, 'name': 'Ruthsan R Jeyabal', 'designation': None, 'contact_no': '+918870289346', 'contactable_id': 288925, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ruthruthsan@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/web-wizards-impulse22-maharaja-agrasen-institute-of-technology-mait-new-delhi-291465</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>[{'id': 1050475, 'name': 'Shubham Jain', 'designation': None, 'contact_no': '+919717321374', 'contactable_id': 291465, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'shubham21345@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/2nd-edition-of-grand-health-innovation-challenge-indian-institute-of-health-management-research-iihmr-jaipur-290937</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>[{'id': 1050112, 'name': 'IIHMR Startups', 'designation': None, 'contact_no': '+917297028430', 'contactable_id': 290937, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'startups@iihmrfoundation.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/sudo-solve-impulse22-maharaja-agrasen-institute-of-technology-mait-new-delhi-283749</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>[{'id': 1049518, 'name': 'Shubham Jain', 'designation': None, 'contact_no': '+919717321374', 'contactable_id': 283749, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'shubham21345@gmail.com'}, {'id': 1050080, 'name': 'Gaurav Panwar', 'designation': None, 'contact_no': '9560499823', 'contactable_id': 283749, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hackmait-30-impulse22-maharaja-agrasen-institute-of-technology-mait-new-delhi-288827</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>[{'id': 1048132, 'name': 'Shubham Jain', 'designation': None, 'contact_no': '+919717321374', 'contactable_id': 288827, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'shubham21345@gmail.com'}, {'id': 1048133, 'name': 'Gaurav Panwar', 'designation': None, 'contact_no': '9560499823', 'contactable_id': 288827, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/cyber-premier-league-a-ctf-event-technunctus-22-indian-institute-of-technology-iit-jammu-285460</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>[{'id': 1045261, 'name': 'Akanksha Raj', 'designation': None, 'contact_no': '8789689482', 'contactable_id': 285460, 'contactable_type': 'App\\Model\\Opportunity', 'email': '2020ucs0109@iitjammu.ac.in'}, {'id': 1045262, 'name': 'Neeraj Singh', 'designation': None, 'contact_no': '9161609702', 'contactable_id': 285460, 'contactable_type': 'App\\Model\\Opportunity', 'email': '2020uch0009@iitjammu.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/mayday-10-the-northcap-university-ncu-gurgaon-284733</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>[{'id': 1044502, 'name': 'Game Mantra', 'designation': None, 'contact_no': '9810721846', 'contactable_id': 284733, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'gamemantra@ncuindia.edu'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hackfest-2022-indian-institute-of-technology-iit-ism-dhanbad-282096</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>[{'id': 1042943, 'name': 'Hackfest IIT ISM Dhanbad', 'designation': None, 'contact_no': '', 'contactable_id': 282096, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'hackfest@iitism.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hacktonix-phoenix-2022-future-institute-of-engineering-and-management-283696</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>[{'id': 1043969, 'name': 'Abhisek Maiti', 'designation': None, 'contact_no': '9647775335', 'contactable_id': 283696, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'abhisek.maiti.fiem.cse19@teamfuture.in'}, {'id': 1043970, 'name': 'Md. Ayyan Fahim', 'designation': None, 'contact_no': '9572970863', 'contactable_id': 283696, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'md.ayyan.fahim.fiem.cse19@teamfuture.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/local-host-aaghaaz-indian-institute-of-technology-iit-madras-284637</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>[{'id': 1044788, 'name': 'Muskan Jindal', 'designation': None, 'contact_no': '9136360566', 'contactable_id': 284637, 'contactable_type': 'App\\Model\\Opportunity', 'email': '21f1005072@student.onlinedegree.iitm.ac.in'}, {'id': 1050409, 'name': 'KALIDASS J', 'designation': None, 'contact_no': '9443232267', 'contactable_id': 284637, 'contactable_type': 'App\\Model\\Opportunity', 'email': '21f3002889@student.onlinedegree.iitm.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/in-the-loop-aaghaaz-indian-institute-of-technology-iit-madras-284636</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>[{'id': 1044786, 'name': 'Nishkarsh Sharma', 'designation': None, 'contact_no': '9251925106', 'contactable_id': 284636, 'contactable_type': 'App\\Model\\Opportunity', 'email': '21f1000053@student.onlinedegree.iitm.ac.in'}, {'id': 1044787, 'name': 'Kalidass J', 'designation': None, 'contact_no': '9443232267', 'contactable_id': 284636, 'contactable_type': 'App\\Model\\Opportunity', 'email': '21f3002889@student.onlinedegree.iitm.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/cryptonite-national-institute-of-technology-karnataka-nitk-surathkal-283854</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>[{'id': 1044036, 'name': ' Pranav Surenderan', 'designation': None, 'contact_no': '7022007960', 'contactable_id': 283854, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}, {'id': 1044037, 'name': 'Rahul Kumar', 'designation': None, 'contact_no': '7004238521', 'contactable_id': 283854, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}, {'id': 1044038, 'name': 'Rahul Maheshwari', 'designation': None, 'contact_no': '8290412782', 'contactable_id': 283854, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}, {'id': 1044039, 'name': 'Ankit Stephen Thomas', 'designation': None, 'contact_no': '9567097555', 'contactable_id': 283854, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/low-code-no-code-virtual-hackathon-cloudfabrix-283262</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>[{'id': 1043700, 'name': 'Gurubaran B', 'designation': None, 'contact_no': '+917010044836', 'contactable_id': 283262, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'gurubaranb@imthyderabad.edu.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/algoholics-texephyr22-dr-vishwanath-karad-mit-world-peace-university-mit-wpu-pune-282862</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>[{'id': 1043446, 'name': 'Vishwas Pancheshwar', 'designation': None, 'contact_no': '+919503076162', 'contactable_id': 282862, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'texephyr2022d2c@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/explorathon-delhi-technological-university-dtu-new-delhi-283085</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>[{'id': 1043583, 'name': 'Chirag', 'designation': None, 'contact_no': '9871358923', 'contactable_id': 283085, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'Chiragg47@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hack-the-build-technunctus22-indian-institute-of-technology-iit-jammu-282463</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>[{'id': 1043286, 'name': 'Coding Club', 'designation': None, 'contact_no': '7204490036', 'contactable_id': 282463, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'codingclub@iitjammu.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/game-of-codes-functionup-281322</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>[{'id': 1042522, 'name': 'Divya Rewtani', 'designation': None, 'contact_no': '+918767964768', 'contactable_id': 281322, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'divya.rewtani@functionup.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/arduino-hackathon-lakshya-fest-lalbhai-dalpatbhai-engineering-college-ldce-gujrat-282298</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>[{'id': 1043075, 'name': 'Meet Parikh', 'designation': None, 'contact_no': '+917016537606', 'contactable_id': 282298, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'meet.parikh7777@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/blockchain-hackathon-rendezvous-22-indian-institute-of-technology-iit-delhi-281998</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>[{'id': 1043021, 'name': 'Manan Airun', 'designation': None, 'contact_no': '8233920545', 'contactable_id': 281998, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'mananairun18@gmail.com'}, {'id': 1043022, 'name': 'Kshitij Alwadhi', 'designation': None, 'contact_no': '9717482010', 'contactable_id': 281998, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'kshitijalwadhi@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/innohacks-hack-n-innovate-kiet-group-of-institutions-kiet-ghaziabad-281899</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>[{'id': 1042851, 'name': 'INNOGEEKS KIET', 'designation': None, 'contact_no': '8439705872', 'contactable_id': 281899, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'innogeeks@kiet.edu'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/beta-up-your-minds-piet-panipat-institute-of-engineering-technology-piet-panipat-281614</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>[{'id': 1042701, 'name': 'Data Science Squad', 'designation': None, 'contact_no': '+918295196149', 'contactable_id': 281614, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'datalytics.piet@gmail.com'}, {'id': 1042702, 'name': 'Coordinator', 'designation': None, 'contact_no': '8869819865', 'contactable_id': 281614, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'datalytics.piet@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/fin-o-hack-fortune-22-delhi-technological-university-dtu-new-delhi-281639</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>[{'id': 1042688, 'name': 'Rishit Toteja', 'designation': None, 'contact_no': '8588970916', 'contactable_id': 281639, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'totejarishit262@gmail.com'}, {'id': 1042689, 'name': 'Aaryan Arora', 'designation': None, 'contact_no': '9650362429', 'contactable_id': 281639, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'aaryan2001.arora@gmail.com'}, {'id': 1042690, 'name': 'Aditya Kumar', 'designation': None, 'contact_no': '8210744867', 'contactable_id': 281639, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ak511046@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/logicape-tryst-indian-institute-of-technology-iit-delhi-281409</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>[{'id': 1042529, 'name': 'Anmol Agarwal', 'designation': None, 'contact_no': '+919582136200', 'contactable_id': 281409, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'anmol.agarwalcp810@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/bugsmash-tryst-indian-institute-of-technology-iit-delhi-281381</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>[{'id': 1042514, 'name': 'Anmol Agarwal', 'designation': None, 'contact_no': '+919582136200', 'contactable_id': 281381, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'anmol.agarwalcp810@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/game-jam-tryst-indian-institute-of-technology-iit-delhi-281262</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>[{'id': 1042441, 'name': 'Chenika', 'designation': None, 'contact_no': '9992929204', 'contactable_id': 281262, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}, {'id': 1042442, 'name': 'Sarthak ', 'designation': None, 'contact_no': '8770675048', 'contactable_id': 281262, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/data-hackathon-sri-venkateswara-college-svc-delhi-university-delhi-281200</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>[{'id': 1042387, 'name': 'Dr. Dipika', 'designation': None, 'contact_no': '9628423183', 'contactable_id': 281200, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'dipikascholar@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/maze-race-technunctus22-indian-institute-of-technology-iit-jammu-280751</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>[{'id': 1042164, 'name': 'Ankit Hooda', 'designation': None, 'contact_no': '+919991099378', 'contactable_id': 280751, 'contactable_type': 'App\\Model\\Opportunity', 'email': '2020ume0215@iitjammu.ac.in'}, {'id': 1042364, 'name': 'Avnish Pandey', 'designation': None, 'contact_no': '09149442715', 'contactable_id': 280751, 'contactable_type': 'App\\Model\\Opportunity', 'email': '2020ume0209@iitjammu.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/name-it-technunctus22-indian-institute-of-technology-iit-jammu-280733</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>[{'id': 1042150, 'name': 'Ankit Hooda', 'designation': None, 'contact_no': '+919991099378', 'contactable_id': 280733, 'contactable_type': 'App\\Model\\Opportunity', 'email': '2020ume0215@iitjammu.ac.in'}, {'id': 1042358, 'name': 'Abhyam Gupta ', 'designation': None, 'contact_no': '07206683371', 'contactable_id': 280733, 'contactable_type': 'App\\Model\\Opportunity', 'email': '2018UCS0081@IITJAMMU.AC.IN'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/simhack-apogee-bits-pilani-the-encrypted-dimension-birla-institute-of-technology-science-bits-pilani-276052</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>[{'id': 1039803, 'name': 'APOGEE Publications and Correspondence', 'designation': None, 'contact_no': '+919871941631', 'contactable_id': 276052, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'pcr@bits-apogee.org'}, {'id': 1041091, 'name': 'Aayush Mundra', 'designation': None, 'contact_no': '7228966930', 'contactable_id': 276052, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'f20201007@pilani.bits-pilani.ac.in'}, {'id': 1041092, 'name': 'Anshh Seksaria', 'designation': None, 'contact_no': '6378234502', 'contactable_id': 276052, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'f20201472@pilani.bits-pilani.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/ideathon-avathharanae-graduate-school-of-management-studies-gsms-280651</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>[{'id': 1042107, 'name': 'Graduate School of Management Studies', 'designation': None, 'contact_no': '+919998406205', 'contactable_id': 280651, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'events.gsms@gtu.edu.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/code-it-out-apogee-bits-pilani-the-encrypted-dimension-birla-institute-of-technology-science-bits-pilani-275696</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>[{'id': 1039736, 'name': 'APOGEE Publications and Correspondence', 'designation': None, 'contact_no': '+919871941631', 'contactable_id': 275696, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'pcr@bits-apogee.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/uiux-challenge-apogee-bits-pilani-the-encrypted-dimension-birla-institute-of-technology-science-bits-pilani-276081</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>[{'id': 1039831, 'name': 'APOGEE Publications and Correspondence', 'designation': None, 'contact_no': '+919871941631', 'contactable_id': 276081, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'pcr@bits-apogee.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/apogee-hackathon-apogee-bits-pilani-the-encrypted-dimension-birla-institute-of-technology-science-bits-pilani-280235</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>[{'id': 1041868, 'name': 'APOGEE Publications and Correspondence', 'designation': None, 'contact_no': '+919871941631', 'contactable_id': 280235, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'pcr@bits-apogee.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/plan2hack-bharati-vidyapeeths-college-of-engineering-bvcoe-new-delhi-279977</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>[{'id': 1041715, 'name': 'Shivam Jain', 'designation': None, 'contact_no': '9990339112', 'contactable_id': 279977, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'bvpieee.info@gmail.com'}, {'id': 1042665, 'name': 'Satvik Singh', 'designation': None, 'contact_no': '9818091859', 'contactable_id': 279977, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'bvpieee.info@gmail.com'}, {'id': 1042666, 'name': 'Nikita Tewary', 'designation': None, 'contact_no': '8825191834', 'contactable_id': 279977, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'bvpieee.info@gmail.com'}, {'id': 1042667, 'name': 'Shreya Muraka', 'designation': None, 'contact_no': '7431852322', 'contactable_id': 279977, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'bvpieee.info@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hackin-summer-22-jaypee-institute-of-information-technology-jiit-noida-278885</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>[{'id': 1041264, 'name': 'Riya Jain', 'designation': None, 'contact_no': '9897548415', 'contactable_id': 278885, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'riyajn2001@gmail.com'}, {'id': 1041265, 'name': 'Aditya Gupta', 'designation': None, 'contact_no': '9315218933', 'contactable_id': 278885, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'adityagupta2620000@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/webigo-indigo-byte-pannalal-girdharlal-dayanand-anglo-vedic-pgdav-college-university-of-delhi-du-delhi-279479</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>[{'id': 1041480, 'name': 'TechWhiz', 'designation': None, 'contact_no': '7602294846', 'contactable_id': 279479, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'techwhizpgdav@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/paramteric-design-conception-battle-udaan22-birla-vishvakarma-mahavidhyalaya-279363</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>[{'id': 1041433, 'name': 'Jay Prajapati', 'designation': None, 'contact_no': '+917283946155', 'contactable_id': 279363, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'jprocks990@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/micromouse-apogee-bits-pilani-the-encrypted-dimension-birla-institute-of-technology-science-bits-pilani-276091</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>[{'id': 1039841, 'name': 'Moksha Agarwal', 'designation': None, 'contact_no': '8529742755', 'contactable_id': 276091, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ieee.bpsc@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hack-e-green-sustainability-conclave-2022-indian-institute-of-technology-iit-roorkee-279030</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>[{'id': 1041315, 'name': 'Chaitanya Gupta', 'designation': None, 'contact_no': '8791101131', 'contactable_id': 279030, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'chaitanya_g@ee.iitr.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/ninja-coding-kurukshetra22-college-of-engineering-ceg-guindy-277111</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>[{'id': 1040346, 'name': 'CEG Tech Forum', 'designation': None, 'contact_no': '+919176471473', 'contactable_id': 277111, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'marketing@cegtechforum.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/technovate-national-institute-of-technology-nit-durgapur-278870</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>[{'id': 1041223, 'name': 'Rageshree Bhattacharjee', 'designation': None, 'contact_no': '9475747931', 'contactable_id': 278870, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}, {'id': 1041224, 'name': 'Ritabrata Ganguly', 'designation': None, 'contact_no': '8170878359', 'contactable_id': 278870, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/ieee-hackathon-apogee-bits-pilani-the-encrypted-dimension-birla-institute-of-technology-science-bits-pilani-278573</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>[{'id': 1041171, 'name': 'Moksha Agarwal', 'designation': None, 'contact_no': '8529742755', 'contactable_id': 278573, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ieee.bpsc@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hackforet-cmr-technical-campus-cmrctc-telangana-274696</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>[{'id': 1039304, 'name': 'Charan Narukulla', 'designation': None, 'contact_no': '7730922675', 'contactable_id': 274696, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'charannarukulla@gmail.com'}, {'id': 1040875, 'name': 'Abhilash Movva', 'designation': None, 'contact_no': '7675055779', 'contactable_id': 274696, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'abhilash.movva@gmail.com'}, {'id': 1040876, 'name': 'Sourabh Mahindrakar ', 'designation': None, 'contact_no': '7981329412', 'contactable_id': 274696, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'msourabh568@gmail.com'}, {'id': 1040877, 'name': 'Manav patel', 'designation': None, 'contact_no': '6355870304', 'contactable_id': 274696, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'Patrlmanavmp166@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/ml-codeathon-apogee-bits-pilani-the-encrypted-dimension-birla-institute-of-technology-science-bits-pilani-276100</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>[{'id': 1039847, 'name': 'Moksha Agarwal', 'designation': None, 'contact_no': '8529742755', 'contactable_id': 276100, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ieee.bpsc@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/codewars-20-birla-institute-of-technology-bit-mesra-deoghar-campus-277785</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>[{'id': 1040669, 'name': 'Harsh Govind', 'designation': None, 'contact_no': '+918578945722', 'contactable_id': 277785, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'harsh_govind@hotmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/ureck-a-thon-ureckon-22-university-of-engineering-management-uem-kolkata-278219</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>[{'id': 1040985, 'name': 'Harsh Agarwal', 'designation': None, 'contact_no': '+917980085759', 'contactable_id': 278219, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ureckon.uemk@gmail.com'}, {'id': 1040986, 'name': 'Prasun Das', 'designation': None, 'contact_no': '7685044881', 'contactable_id': 278219, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'prasundas@outlook.in'}, {'id': 1040987, 'name': 'Snehomoy Maitra', 'designation': None, 'contact_no': '8420016552', 'contactable_id': 278219, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'itsmesnehomoy@gmail.com'}, {'id': 1040988, 'name': 'Kaustav Roy', 'designation': None, 'contact_no': '9038540603', 'contactable_id': 278219, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'kaustavr25@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/ch-chemkriti-national-institute-of-technology-nit-durgapur-277991</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>[{'id': 1040759, 'name': 'Chemical Engineering Students Society', 'designation': None, 'contact_no': '+919883494410', 'contactable_id': 277991, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'chessnitd2020@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/tech-roadies-aurora-graphic-era-deemed-to-be-university-geu-dehradun-277298</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>[{'id': 1040465, 'name': 'ACM GEU', 'designation': None, 'contact_no': '7651872837', 'contactable_id': 277298, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'acm.geu@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hackadroit-software-hackathon-institute-of-electrical-and-electronics-engineers-ieee-pec-277770</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>[{'id': 1040668, 'name': 'IEEE PEC', 'designation': None, 'contact_no': '7007108095', 'contactable_id': 277770, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ieee.pecsb@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/code-hunt-a-coding-treasure-hunt-innovision-2021-national-institute-of-technology-nit-rourkela-276275</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>[{'id': 1039962, 'name': 'Samay Kar', 'designation': None, 'contact_no': '6370849983', 'contactable_id': 276275, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'thesamay717@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/bits-pilani-postman-api-hackathon-10-birla-institute-of-technology-science-bits-pilani-277419</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>[{'id': 1040575, 'name': 'BITS Pilani Postman API and Coding Innovation Lab', 'designation': None, 'contact_no': '+919702260001', 'contactable_id': 277419, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'bits-postman-lab@pilani.bits-pilani.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/international-symposium-on-computational-intelligence-2022-manav-rachna-international-institute-of-research-an-277592</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>[{'id': 1040592, 'name': 'Sairam Kaushik', 'designation': None, 'contact_no': '+919717809474', 'contactable_id': 277592, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'sairamkaushik1@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/d-hackathon-srm-institute-of-science-and-technology-vadapalani-campus-277564</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>[{'id': 1040580, 'name': 'HariHaran', 'designation': None, 'contact_no': '+919677001745', 'contactable_id': 277564, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'hicreations14@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/skyjack-online-data-science-treasure-hunt-shri-vile-parle-kelavani-mandals-dwarkadas-j-sanghvi-college-of-engi-276325</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>[{'id': 1040501, 'name': 'Arihant Sheth', 'designation': None, 'contact_no': '8433567777', 'contactable_id': 276325, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'arihant.sheth0802@gmail.com'}, {'id': 1040502, 'name': 'Yogesh Maheshwari', 'designation': None, 'contact_no': '9022795434', 'contactable_id': 276325, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'yogeshgm1234@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/art-of-apis-orbe-novo22-birla-institute-of-technology-and-sciences-bits-pilani-hyderabad-campus-275198</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>[{'id': 1039312, 'name': 'Shubhankar Shastri', 'designation': None, 'contact_no': '', 'contactable_id': 275198, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'atmos@hyderabad.bits-pilani.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/ml-hacks-innovision-2021-national-institute-of-technology-nit-rourkela-277494</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>[{'id': 1040541, 'name': 'Abhranta', 'designation': None, 'contact_no': '8763865168', 'contactable_id': 277494, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/web-crawler-orbe-novo22-birla-institute-of-technology-and-sciences-bits-pilani-hyderabad-campus-275186</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>[{'id': 1039311, 'name': 'Anish Guruvelli', 'designation': None, 'contact_no': '8888003008', 'contactable_id': 275186, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'atmos@hyderabad.bits-pilani.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/game-jam-vriddhi-2021-national-institute-of-technology-nit-rourkela-277272</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>[{'id': 1040439, 'name': 'Rittwik Devdatta Das', 'designation': None, 'contact_no': '+917978117118', 'contactable_id': 277272, 'contactable_type': 'App\\Model\\Opportunity', 'email': '2000rittwikdas@gmail.com'}, {'id': 1040440, 'name': 'Sanjay Reddy', 'designation': None, 'contact_no': '9154443106', 'contactable_id': 277272, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/masters-union-startup-weekend-masters-union-school-of-business-276422</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>[{'id': 1040039, 'name': "Masters' Union Innovation Lab", 'designation': None, 'contact_no': '+919167631997', 'contactable_id': 276422, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'innovationlab@mastersunion.org'}, {'id': 1040040, 'name': 'Yeshvant Suresh Babu', 'designation': None, 'contact_no': '9841989919', 'contactable_id': 276422, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'yeshvanth.suresh@mastersunion.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/counter-cypher-wissenaire22-indian-institute-of-technology-iit-bhubaneswar-276735</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>[{'id': 1040144, 'name': 'Varun Abhishek Chettubathini', 'designation': None, 'contact_no': '+917981711761', 'contactable_id': 276735, 'contactable_type': 'App\\Model\\Opportunity', 'email': '20me01056@iitbbs.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/online-game-a-thon-hindustan-institute-of-technology-and-science-hits-chennai-275115</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>[{'id': 1039288, 'name': 'Dr. D. Chitradevi Assistant Professor III - MCA', 'designation': None, 'contact_no': '+919445764585', 'contactable_id': 275115, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'dcdevi@hindustanuniv.ac.in'}, {'id': 1040235, 'name': 'Mr. Sanju Rajan', 'designation': None, 'contact_no': '9962010256', 'contactable_id': 275115, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'sanjur@hindustanuniv.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/anticoding-apogee-bits-pilani-the-encrypted-dimension-birla-institute-of-technology-science-bits-pilani-276033</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>[{'id': 1039790, 'name': 'APOGEE Publications and Correspondence', 'designation': None, 'contact_no': '+919871941631', 'contactable_id': 276033, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'pcr@bits-apogee.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/app-a-thon-apogee-bits-pilani-the-encrypted-dimension-birla-institute-of-technology-science-bits-pilani-276049</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>[{'id': 1039802, 'name': 'APOGEE Publications and Correspondence', 'designation': None, 'contact_no': '+919871941631', 'contactable_id': 276049, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'pcr@bits-apogee.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/insomnia-innovision-2021-national-institute-of-technology-nit-rourkela-276890</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>[{'id': 1040212, 'name': 'Utkarsh', 'designation': None, 'contact_no': '7905726909', 'contactable_id': 276890, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'codered.nitrkl@gmail.com'}, {'id': 1040213, 'name': 'Sritam', 'designation': None, 'contact_no': '8280878368', 'contactable_id': 276890, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'spawnnitr@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/turing-coding-contest-innovision-2021-national-institute-of-technology-nit-rourkela-276888</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>[{'id': 1040210, 'name': 'Abhinav', 'designation': None, 'contact_no': '9555736583', 'contactable_id': 276888, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'dixitabhinav1111@gmail.com'}, {'id': 1040211, 'name': 'Snigdha Swaroop', 'designation': None, 'contact_no': '9836730055', 'contactable_id': 276888, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hackbiome-innovision-2021-national-institute-of-technology-nit-rourkela-276936</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>[{'id': 1040246, 'name': 'The Bioscience Society', 'designation': None, 'contact_no': '', 'contactable_id': 276936, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'tbsnitrkl@gmail.com'}, {'id': 1040247, 'name': 'Sambit', 'designation': None, 'contact_no': '7205353738', 'contactable_id': 276936, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}, {'id': 1040248, 'name': 'Adrita', 'designation': None, 'contact_no': '9088608775', 'contactable_id': 276936, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/code-zone-innovision-2021-national-institute-of-technology-nit-rourkela-276884</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>[{'id': 1040204, 'name': 'Moksh', 'designation': None, 'contact_no': '8130206929', 'contactable_id': 276884, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}, {'id': 1040205, 'name': 'Rishi Jhawar', 'designation': None, 'contact_no': '7718853195', 'contactable_id': 276884, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}, {'id': 1040206, 'name': 'Aman Jindal', 'designation': None, 'contact_no': '9556875081', 'contactable_id': 276884, 'contactable_type': 'App\\Model\\Opportunity', 'email': '3dclub.nitrkl@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hack-o-protoquest-2022-a-technical-tournament-google-developer-student-clubs-gdsc-276883</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>[{'id': 1040209, 'name': 'GDSC SRCASW', 'designation': None, 'contact_no': '+917678681183', 'contactable_id': 276883, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'dscsrcaswdu@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/art-of-apis-orbe-novo22-birla-institute-of-technology-and-sciences-bits-pilani-hyderabad-campus-275524</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>[{'id': 1039491, 'name': 'Shubhankar', 'designation': None, 'contact_no': '8789109459', 'contactable_id': 275524, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'atmos@hyderabad.bits-pilani.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/bugsmash-code-debugging-competition-narsee-monjee-institute-of-management-studies-nmims-indore-274964</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>[{'id': 1039178, 'name': 'Turing Club', 'designation': None, 'contact_no': '9993299444', 'contactable_id': 274964, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'turing.nm@gmail.com'}, {'id': 1039179, 'name': 'Yutishtha Tanwar', 'designation': None, 'contact_no': '8827864628', 'contactable_id': 274964, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}, {'id': 1039180, 'name': 'Isha Chandravanshi', 'designation': None, 'contact_no': '8253002697', 'contactable_id': 274964, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/h6-hackathon-avalon-2022-terna-engineering-college-terna-navi-mumbai-275649</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>[{'id': 1039581, 'name': 'Yadnesh Lute', 'designation': None, 'contact_no': '+918286367103', 'contactable_id': 275649, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'yadneshlute@ternaengg.ac.in'}, {'id': 1039582, 'name': 'Karishma Shukla', 'designation': None, 'contact_no': '9699630569', 'contactable_id': 275649, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'karishmashukla@ternaengg.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/esoverse-cerebro-2022-indian-institute-of-information-technology-iiit-vadodara-275307</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>[{'id': 1039362, 'name': 'Vidit Shukla', 'designation': None, 'contact_no': '7235870974', 'contactable_id': 275307, 'contactable_type': 'App\\Model\\Opportunity', 'email': '201951167@iiitvadodara.ac.in'}, {'id': 1039372, 'name': 'Riya Parikh', 'designation': None, 'contact_no': '8849670805', 'contactable_id': 275307, 'contactable_type': 'App\\Model\\Opportunity', 'email': '202051161@iiitvadodara.ac.in'}, {'id': 1039373, 'name': 'Pranjal Katiyar', 'designation': None, 'contact_no': '9335515638', 'contactable_id': 275307, 'contactable_type': 'App\\Model\\Opportunity', 'email': '202052331@iiitvadodara.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/sociothon-national-social-summit22-indian-institute-of-technology-iit-roorkee-274253</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>[{'id': 1038761, 'name': 'National Social Summit', 'designation': None, 'contact_no': '+916206115050', 'contactable_id': 274253, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'socialsummit@iitr.ac.in'}, {'id': 1038762, 'name': 'Juhi Vishwakarma', 'designation': None, 'contact_no': '9340567026', 'contactable_id': 274253, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'juhi.events.nssiitr@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/code-jutsu-1-dr-dy-patil-institute-of-technology-pimpri-pune-274032</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>[{'id': 1038687, 'name': 'IETE DIT', 'designation': None, 'contact_no': '', 'contactable_id': 274032, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ieteentcdit@gmail.com'}, {'id': 1038751, 'name': 'Praniti Parmar', 'designation': None, 'contact_no': '6303334238', 'contactable_id': 274032, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'pranitip111@gmail.com'}, {'id': 1038752, 'name': 'Rahul Agarwal', 'designation': None, 'contact_no': '8002062905', 'contactable_id': 274032, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'rahulagarwal1126@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/code-arduino-elan-ivision-2022-iit-hyderabad-indian-institute-of-technology-iit-hyderabad-273568</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>[{'id': 1038386, 'name': 'Mayuri Chourasia', 'designation': None, 'contact_no': '9136542860', 'contactable_id': 273568, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'bt21btech11001@iith.ac.in'}, {'id': 1038387, 'name': 'Devashish Chaudhari', 'designation': None, 'contact_no': '9879201855', 'contactable_id': 273568, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ma21btech11005@iith.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/the-mighty-hack-manipal-institute-of-technology-mit-manipal-272575</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>[{'id': 1038234, 'name': 'Shriti Chandra', 'designation': None, 'contact_no': '+919663526555', 'contactable_id': 272575, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'shritichan@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hackrocket-a-60-hours-hackathon-maulana-azad-national-institute-of-technology-manit-bhopal-273421</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>[{'id': 1038291, 'name': 'Entrepreneurship Cell NIT Bhopal', 'designation': None, 'contact_no': '+919589255239', 'contactable_id': 273421, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'support@ecellnitb.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hackathon-elan-ivision-2022-iit-hyderabad-indian-institute-of-technology-iit-hyderabad-272342</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>[{'id': 1037798, 'name': 'Manoj Nayak', 'designation': None, 'contact_no': '9731917329', 'contactable_id': 272342, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'es21btech11020@iith.ac.in'}, {'id': 1037799, 'name': 'Hiya Mehta', 'designation': None, 'contact_no': '7405824800', 'contactable_id': 272342, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ee21btech11024@iith.ac.in'}, {'id': 1037800, 'name': 'Rushikesh Dehankar', 'designation': None, 'contact_no': '9518321563', 'contactable_id': 272342, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'me21btech11044@iith.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/codefiesta-aurora-20-delhi-technological-university-dtu-new-delhi-272671</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>[{'id': 1037947, 'name': 'Kanupriya Jain', 'designation': None, 'contact_no': '8527088240', 'contactable_id': 272671, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}, {'id': 1037948, 'name': 'Gokul Verma', 'designation': None, 'contact_no': '8677910193', 'contactable_id': 272671, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hackbvicam-bharati-vidyapeeth-institute-of-computer-application-and-management-272489</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>[{'id': 1037889, 'name': 'Srishti Jain', 'designation': None, 'contact_no': '8178006872', 'contactable_id': 272489, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}, {'id': 1037887, 'name': 'Saurabh', 'designation': None, 'contact_no': '9901303230', 'contactable_id': 272489, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}, {'id': 1037888, 'name': 'Yatin', 'designation': None, 'contact_no': '8800282376', 'contactable_id': 272489, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/roundtable-hackathon-aurora-20-delhi-technological-university-dtu-new-delhi-272006</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>[{'id': 1037580, 'name': 'Saksham Gupta', 'designation': None, 'contact_no': '9643717655', 'contactable_id': 272006, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'saksham.gpt2001@gmail.com'}, {'id': 1037585, 'name': 'Ritika Rai', 'designation': None, 'contact_no': '9013541686', 'contactable_id': 272006, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/flipr-hackathon-roboweek-20-national-institute-of-technology-nit-hamirpur-271755</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>[{'id': 1037457, 'name': 'Shivam Chaudhary', 'designation': None, 'contact_no': '8219601395', 'contactable_id': 271755, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'shivamthalwal@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/applify-a-flutter-app-dev-hackathon-e-summit22-iit-bhu-indian-institute-of-technology-iit-bhu-varanasi-271813</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>[{'id': 1037492, 'name': 'E Cell IIT BHU', 'designation': None, 'contact_no': '+919587887413', 'contactable_id': 271813, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ecell@itbhu.ac.in'}, {'id': 1037493, 'name': 'Satveer', 'designation': None, 'contact_no': '7726026664', 'contactable_id': 271813, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'satveer.barodia.civ20@itbhu.ac.in'}, {'id': 1037494, 'name': 'Ranjan', 'designation': None, 'contact_no': '6291097714', 'contactable_id': 271813, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ranjan.prasad.cer20@itbhu.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/code-vista-20-gh-raisoni-college-of-engineering-and-management-ghrcem-pune-267048</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>[{'id': 1035276, 'name': 'Saurav Kumar Pandey', 'designation': None, 'contact_no': '9702531828', 'contactable_id': 267048, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'sauravpandey1012@gmail.com'}, {'id': 1035277, 'name': 'Prasad Santoshrao Choulwar', 'designation': None, 'contact_no': '7038952913', 'contactable_id': 267048, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'pschoulwar@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>https://unstop.com/competition/uxplore-a-uiux-based-virtual-competition-e-summit22-iit-bhu-indian-institute-of-technology-iit-bhu-varanasi-271457</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>[{'id': 1037387, 'name': 'E Cell IIT BHU', 'designation': None, 'contact_no': '+919587887413', 'contactable_id': 271457, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ecell@itbhu.ac.in'}, {'id': 1037388, 'name': 'Pokala Gouthami Sree', 'designation': None, 'contact_no': '9515709234', 'contactable_id': 271457, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'pokala.gouthamisree.che20@itbhu.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/aws-certified-cloud-practitioner-certification-prep-challenge-saasguru-hackathon-challenge-saasguru-270603</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>[{'id': 1036969, 'name': 'Aditya Mishra', 'designation': None, 'contact_no': '', 'contactable_id': 270603, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'aditya.mishra@saasguru.co'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/venividivici-ctf-parsec-a-paradigm-shift-indian-institute-of-technology-iit-dharwad-268112</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>[{'id': 1035368, 'name': 'Outreach Parsec', 'designation': None, 'contact_no': '+919909099099', 'contactable_id': 268112, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'outreach.parsec@iitdh.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/indias-largest-non-tech-hackathon-for-digital-marketers-mentorsity-pvt-ltd-268889</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>[{'id': 1035609, 'name': 'Gaurang Jindal', 'designation': None, 'contact_no': '9891529229', 'contactable_id': 268889, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'admin@digitalinvesto.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/onspot-hackathon-2022-aarohan-2022-national-institute-of-technology-nit-durgapur-269460</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>[{'id': 1036259, 'name': 'Aarohan NIT Durgapur', 'designation': None, 'contact_no': '8967992555', 'contactable_id': 269460, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'arhn@nitdgp.ac.in'}, {'id': 1036264, 'name': 'Abhinav Krishna', 'designation': None, 'contact_no': '8002463988', 'contactable_id': 269460, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}, {'id': 1036265, 'name': 'Srimantini Bhattacharya', 'designation': None, 'contact_no': '6291875302', 'contactable_id': 269460, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/source-code-kshitij-2022-kshitij-2022-indian-institute-of-technology-iit-kharagpur-269200</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>[{'id': 1036297, 'name': 'Anal Jyoti', 'designation': None, 'contact_no': '6204172588', 'contactable_id': 269200, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'anal.jyoti@ktj.in'}, {'id': 1036298, 'name': 'Abhishek Kumar', 'designation': None, 'contact_no': '8002131381', 'contactable_id': 269200, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'abhishek.kumartrn@ktj.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/deepfake-hackathon-university-institute-of-engineering-and-technology-uiet-chandigarh-269281</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>[{'id': 1036033, 'name': 'Naveen Aggarwal', 'designation': None, 'contact_no': '', 'contactable_id': 269281, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'navagg@gmail.com'}, {'id': 1036034, 'name': 'Staffy Kingra', 'designation': None, 'contact_no': '', 'contactable_id': 269281, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'staffysk@gmail.com'}, {'id': 1036055, 'name': 'Muskaan Chopra', 'designation': None, 'contact_no': '', 'contactable_id': 269281, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'chopramuskaan47@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hackaverse-spectra-the-fest-sardar-patel-college-of-engineering-spce-mumbai-268534</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>[{'id': 1035339, 'name': 'Sahil Balia', 'designation': None, 'contact_no': '8291116244', 'contactable_id': 268534, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'e2010008@spce.ac.in'}, {'id': 1035340, 'name': 'Satwik Mehta', 'designation': None, 'contact_no': '9930468891', 'contactable_id': 268534, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}, {'id': 1035341, 'name': 'Aditya Shinde', 'designation': None, 'contact_no': '7378980092', 'contactable_id': 268534, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/pay-hack-global-entrepreneurship-summit-2022-innovation-for-inclusion-ges-2022-indian-institute-of-technology--268698</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>[{'id': 1035506, 'name': 'Aman Kumar Singh', 'designation': None, 'contact_no': '+918459677704', 'contactable_id': 268698, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'aman.kumarsingh@ecell-iitkgp.org'}, {'id': 1035508, 'name': 'Thoravi Pise', 'designation': None, 'contact_no': '9405885159', 'contactable_id': 268698, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'thoravi.pise@ecell-iitkgp.org'}, {'id': 1035509, 'name': 'Prakriti Barua', 'designation': None, 'contact_no': '9863053025', 'contactable_id': 268698, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'prakriti.barua@ecell-iitkgp.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/global-grand-coding-contest-newton-schoolns-bengaluru-268519</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>[{'id': 1035319, 'name': 'Shashank Chandel', 'designation': None, 'contact_no': '', 'contactable_id': 268519, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'shashank@newtonschool.co'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/css-champs-technozarre22-srm-institute-of-science-and-technology-vadapalani-campus-267846</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>[{'id': 1034802, 'name': 'Pranav Ram', 'designation': None, 'contact_no': '+917358254310', 'contactable_id': 267846, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'kp3701@srmist.edu.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/mindsweeper-north-india-zonals-cognizance-2022-indian-institute-of-technology-iit-roorkee-267490</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>[{'id': 1034582, 'name': 'Vanshika Singh', 'designation': None, 'contact_no': '9981251351', 'contactable_id': 267490, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'pr_support@cognizance.org.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/innovaccers-hackercamp22-powered-by-microsoft-innovaccers-hackercamp22-powered-by-microsoft-innovaccer-266149</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>[{'id': 1033502, 'name': 'Helpdesk', 'designation': None, 'contact_no': '', 'contactable_id': 266149, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'support@dare2compete.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/innovaccers-hackercamp22-powered-by-microsoft-innovaccers-hackercamp22-powered-by-microsoft-innovaccer-267422</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>[{'id': 1034518, 'name': 'Helpdesk', 'designation': None, 'contact_no': '', 'contactable_id': 267422, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'support@dare2compete.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/code-with-globalshala-30-globalshala-266368</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>[{'id': 1033632, 'name': 'Globalshala', 'designation': None, 'contact_no': '', 'contactable_id': 266368, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'contact@globalshala.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/arcanum-aarohan-2022-national-institute-of-technology-nit-durgapur-267284</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>[{'id': 1034428, 'name': 'Alok Sagar', 'designation': None, 'contact_no': '+918825317391', 'contactable_id': 267284, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'aloksagar5445@gmail.com'}, {'id': 1034429, 'name': 'Snehil Sen', 'designation': None, 'contact_no': '7439454022', 'contactable_id': 267284, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'snehil.debasish@gmail.com'}, {'id': 1034430, 'name': 'Mounam Maiti', 'designation': None, 'contact_no': '8967152766', 'contactable_id': 267284, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'mounam.jan13@gmail.com'}, {'id': 1034431, 'name': 'Ishan Dutta', 'designation': None, 'contact_no': '8670400694', 'contactable_id': 267284, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ishandutta1220@gmail.com'}, {'id': 1035570, 'name': 'Srimantini Bhattacharya', 'designation': None, 'contact_no': '6291875302', 'contactable_id': 267284, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'srimantini2019@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hack-for-cause-indian-institute-of-technology-iit-delhi-267240</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>[{'id': 1034388, 'name': 'eDC IITD', 'designation': None, 'contact_no': '+918005995622', 'contactable_id': 267240, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'edciitd.team@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/robodify-aarohan-2022-national-institute-of-technology-nit-durgapur-266815</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>[{'id': 1034010, 'name': 'Arkaprava Manna', 'designation': None, 'contact_no': '+916290837938', 'contactable_id': 266815, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'mannaarkaprava@gmail.com'}, {'id': 1034011, 'name': 'Ashish Saha', 'designation': None, 'contact_no': '8967568872', 'contactable_id': 266815, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ashu0505ashish@gmail.com'}, {'id': 1034012, 'name': 'Atrayee Chatterjee', 'designation': None, 'contact_no': '9547283179', 'contactable_id': 266815, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'atrayeechatterjee01@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/tech-a-thon-udaan-22-shaheed-rajguru-college-of-applied-sciences-for-women-university-of-delhi-266585</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>[{'id': 1033788, 'name': 'Vishakha Soni', 'designation': None, 'contact_no': '7838803039', 'contactable_id': 266585, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'iic.rajguru@gmail.com'}, {'id': 1033790, 'name': 'Utsav Rani', 'designation': None, 'contact_no': '8709726849', 'contactable_id': 266585, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'iic.rajguru@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/designnsolve-devcation-indira-gandhi-delhi-technical-university-for-women-igdtuw-delhi-266079</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>[{'id': 1033412, 'name': 'GDSC IGDTUW', 'designation': None, 'contact_no': '+918839084945', 'contactable_id': 266079, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'gdsc.devcation@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/fintechstico-the-fintech-event-consilium22-netaji-subhas-university-of-technology-nsut-delhi-264400</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>[{'id': 1032296, 'name': 'Deepanshu Varshney', 'designation': None, 'contact_no': '9540746611', 'contactable_id': 264400, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'deepanshu.varshney.ug20@nsut.ac.in'}, {'id': 1032437, 'name': 'Shashank Singh', 'designation': None, 'contact_no': '9910282590', 'contactable_id': 264400, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'shashank.singh.ug20@nsut.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hackcovit2022-vellore-institute-of-technology-vit-bhopal-265595</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>[{'id': 1033257, 'name': 'Helpdesk', 'designation': None, 'contact_no': '7011781847', 'contactable_id': 265595, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'hackcovit2022@vitbhopal.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/ideatensolve-devcation-indira-gandhi-delhi-technical-university-for-women-igdtuw-delhi-266047</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>[{'id': 1033384, 'name': 'GDSC IGDTUW', 'designation': None, 'contact_no': '+918839084945', 'contactable_id': 266047, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'gdsc.devcation@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/ecothon-sipna-college-of-engineering-and-technology-scet-amravati-265970</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>[{'id': 1033329, 'name': 'ecothon', 'designation': None, 'contact_no': '+919763504183', 'contactable_id': 265970, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ecothonsipna@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/code-o-soccer-kshitij-2022-indian-institute-of-technology-iit-kharagpur-265821</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>[{'id': 1033195, 'name': 'Saurav', 'designation': None, 'contact_no': '', 'contactable_id': 265821, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ss.saurav@ktj.in'}, {'id': 1033196, 'name': 'Sairam Reddy Kannareddy', 'designation': None, 'contact_no': '7995458560', 'contactable_id': 265821, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'sairam.kanna@ktj.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/codemax22-national-institute-of-technology-nit-warangal-265196</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>[{'id': 1032752, 'name': 'Avinash', 'designation': None, 'contact_no': '6305589207', 'contactable_id': 265196, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'chakra_941911@student.nitw.ac.in'}, {'id': 1032760, 'name': 'Jayesh', 'designation': None, 'contact_no': '9950611285', 'contactable_id': 265196, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'joshi_871968@student.nitw.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/mindsweeper-rajasthan-zonals-cognizance-2022-indian-institute-of-technology-iit-roorkee-264790</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>[{'id': 1032540, 'name': 'Prateek Chouhan', 'designation': None, 'contact_no': '7665436937', 'contactable_id': 264790, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'pr_support@cognizance.org.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/smack-d-bug-20-aavartan-technocracy-national-institute-of-technology-nit-raipur-264285</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>[{'id': 1032445, 'name': 'The Technocracy NIT Raipur', 'designation': None, 'contact_no': '9755616654', 'contactable_id': 264285, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'technocracyform@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/juspay-hiring-challenge-2022-juspay-263513</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>[{'id': 1031550, 'name': 'Helpdesk', 'designation': None, 'contact_no': '', 'contactable_id': 263513, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'support@dare2compete.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/machine-learning-contest-data-science-summit22-birla-institute-of-technology-bit-mesra-ranchi-263411</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>[{'id': 1031451, 'name': 'Society for Data Science', 'designation': None, 'contact_no': '', 'contactable_id': 263411, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'sds@bitmesra.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/salesforce-platform-developer-1-certification-prep-challenge-saasguru-hackathon-challenge-saasguru-262427</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>[{'id': 1030859, 'name': 'Aditya Mishra', 'designation': None, 'contact_no': '', 'contactable_id': 262427, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'aditya.mishra@saasguru.co'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/mindsweeper-maharashtra-zonals-cognizance-2022-indian-institute-of-technology-iit-roorkee-262657</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>[{'id': 1031095, 'name': 'Sudhanshu Kadu', 'designation': None, 'contact_no': '9112845539', 'contactable_id': 262657, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'pr_support@cognizance.org.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/pixelaces-bharati-vidyapeeths-college-of-engineering-bvcoe-new-delhi-262832</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>[{'id': 1031075, 'name': 'GDSC BVP', 'designation': None, 'contact_no': '+918178529558', 'contactable_id': 262832, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'bvp.dsc@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/guardains-parsec-a-paradigm-shift-indian-institute-of-technology-iit-dharwad-262141</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>[{'id': 1030503, 'name': 'Outreach Parsec', 'designation': None, 'contact_no': '', 'contactable_id': 262141, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'outreach.parsec@iitdh.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/404-resolved-kaizen-iit-delhi-indian-institute-of-technology-iit-delhi-261993</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>[{'id': 1030418, 'name': 'Harsh Jain', 'designation': None, 'contact_no': '8516948686', 'contactable_id': 261993, 'contactable_type': 'App\\Model\\Opportunity', 'email': '404resolved.iitd@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/uber-hacktag-uber-technologies-inc-158380</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>[{'id': 1003161, 'name': 'Helpdesk', 'designation': None, 'contact_no': '', 'contactable_id': 158380, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'support@dare2compete.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hackatron22-walchand-college-of-engineering-wce-sangli-261720</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>[{'id': 1030158, 'name': 'Satyam Baldawa', 'designation': None, 'contact_no': '8983517226', 'contactable_id': 261720, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'walchand.elesa@gmail.com'}, {'id': 1030159, 'name': 'Wasim Shaikh', 'designation': None, 'contact_no': '9545839089', 'contactable_id': 261720, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/uber-hacktag-20-uber-technologies-inc-260528</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>[{'id': 1029578, 'name': 'Helpdesk', 'designation': None, 'contact_no': '', 'contactable_id': 260528, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'support@dare2compete.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/website-development-technophilia-college-of-vocational-studies-cvs-delhi-university-du-260283</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>[{'id': 1029302, 'name': 'Encrypt', 'designation': None, 'contact_no': '9718185742', 'contactable_id': 260283, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'cvs.encrypt@gmail.com'}, {'id': 1029305, 'name': 'Ravi', 'designation': None, 'contact_no': '8368354162', 'contactable_id': 260283, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'cvs.encrypt@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/mini-vishwa-ctf-bracts-vishwakarma-institute-of-information-technology-viit-pune-260980</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>[{'id': 1029679, 'name': 'Cyber Cell VIIT', 'designation': None, 'contact_no': '9924326759', 'contactable_id': 260980, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'cybercell@viit.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/mindsweeper-delhi-uttar-pradesh-zonals-cognizance-2022-indian-institute-of-technology-iit-roorkee-260232</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>[{'id': 1029380, 'name': 'Rohan Mishra', 'designation': None, 'contact_no': '8918443882', 'contactable_id': 260232, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'pr_support@cognizance.org.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/axenothon-2022-axeno-consulting-259086</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>[{'id': 1028604, 'name': 'Helpdesk', 'designation': None, 'contact_no': '', 'contactable_id': 259086, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'support@dare2compete.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/techtantra-10-vellore-institute-of-technology-vit-vellore-260197</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>[{'id': 1029179, 'name': 'IEEE IAS', 'designation': None, 'contact_no': '+919993389268', 'contactable_id': 260197, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ieeeiasvitvellore@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/ultimate-coder-vjti-technovanza-2021-22-veermata-jijabai-technological-institute-vjti-mumbai-258544</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>[{'id': 1028340, 'name': 'Mahita Samant', 'designation': None, 'contact_no': '+919869077529', 'contactable_id': 258544, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'mahita.samant@technovanza.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/java-c-guru-vjti-technovanza-2021-22-veermata-jijabai-technological-institute-vjti-mumbai-258548</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>[{'id': 1028342, 'name': 'Mahita Samant', 'designation': None, 'contact_no': '+919869077529', 'contactable_id': 258548, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'mahita.samant@technovanza.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/technovanza-uiux-challenge-vjti-technovanza-2021-22-veermata-jijabai-technological-institute-vjti-mumbai-259420</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>[{'id': 1028775, 'name': 'Mahita Samant', 'designation': None, 'contact_no': '+919869077529', 'contactable_id': 259420, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'mahita.samant@technovanza.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/ideathon-2022-indian-institute-of-technology-iit-madras-259505</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>[{'id': 1028815, 'name': 'Sudip Mondal', 'designation': None, 'contact_no': '+919126865452', 'contactable_id': 259505, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ce20b112@smail.iitm.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/capture-the-flag-vjti-technovanza-2021-22-veermata-jijabai-technological-institute-vjti-mumbai-259363</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>[{'id': 1028748, 'name': 'Mahita Samant', 'designation': None, 'contact_no': '+919869077529', 'contactable_id': 259363, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'mahita.samant@technovanza.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/cdf-social-hackathon-netaji-subhas-university-of-technology-nsut-delhi-259014</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>[{'id': 1028564, 'name': 'Cdf NSUT', 'designation': None, 'contact_no': '+918826682619', 'contactable_id': 259014, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'cdfnsit@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/technohack2022-vjti-technovanza-2021-22-veermata-jijabai-technological-institute-vjti-mumbai-258562</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>[{'id': 1028352, 'name': 'Mahita Samant', 'designation': None, 'contact_no': '+919869077529', 'contactable_id': 258562, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'mahita.samant@technovanza.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/ar-atelier-national-institute-of-technology-nit-durgapur-258301</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>[{'id': 1028171, 'name': 'Arkaprava Manna', 'designation': None, 'contact_no': '+916290837938', 'contactable_id': 258301, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'mannaarkaprava@gmail.com'}, {'id': 1028172, 'name': 'Ashish Saha', 'designation': None, 'contact_no': '8967568872', 'contactable_id': 258301, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ashu0505ashish@gmail.com'}, {'id': 1028173, 'name': 'Ashis Srivastava', 'designation': None, 'contact_no': '9851244946', 'contactable_id': 258301, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'srivastavaashis10@gmail.com'}, {'id': 1028174, 'name': 'Atrayee Chatterjee', 'designation': None, 'contact_no': '9547283179', 'contactable_id': 258301, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'atrayeechatterjee01@gmail.com'}, {'id': 1028175, 'name': 'Ishan Dutta', 'designation': None, 'contact_no': '8670400694', 'contactable_id': 258301, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ishandutta1220@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/sherlocked-the-hunt-vjti-technovanza-2021-22-veermata-jijabai-technological-institute-vjti-mumbai-258539</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>[{'id': 1028339, 'name': 'Mahita Samant', 'designation': None, 'contact_no': '+919869077529', 'contactable_id': 258539, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'mahita.samant@technovanza.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/mindsweeper-madhya-pradesh-zonals-cognizance-2022-indian-institute-of-technology-iit-roorkee-257174</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>[{'id': 1027374, 'name': 'Rishabh Tirole', 'designation': None, 'contact_no': '6268466340', 'contactable_id': 257174, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'pr_support@cognizance.org.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/csi-hackathon-60-university-of-petroleum-energy-studies-upes-dehradun-257850</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>[{'id': 1027833, 'name': 'Arnav Shah', 'designation': None, 'contact_no': '9935166131', 'contactable_id': 257850, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'hackathon6.o@upescsi.in'}, {'id': 1027834, 'name': 'Swarnim Gandhi', 'designation': None, 'contact_no': '9627886073', 'contactable_id': 257850, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'hackathon6.o@upescsi.in'}, {'id': 1027835, 'name': 'Ramya Mihir', 'designation': None, 'contact_no': '9760573827', 'contactable_id': 257850, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'hackathon6.o@upescsi.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/reverse-coding-2022-vits-biggest-competitive-coding-competition-vellore-institute-of-technology-vit-vellore-257351</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>[{'id': 1027482, 'name': 'Harsh Avinash', 'designation': None, 'contact_no': '6300184214', 'contactable_id': 257351, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'harsh.avinash.official@gmail.com'}, {'id': 1027483, 'name': 'Sumona Sud', 'designation': None, 'contact_no': '9741582714', 'contactable_id': 257351, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'sumonasud@acm.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/cascade-cup22-the-ultimate-data-science-challenge-indian-institute-of-technology-iit-guwahati-256982</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>[{'id': 1027253, 'name': 'Consulting and Analytics Club IIT Guwahati', 'designation': None, 'contact_no': '9727718955', 'contactable_id': 256982, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'caciitg@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/algo-unlock-2022-college-of-engineering-ceg-guindy-255931</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>[{'id': 1026578, 'name': 'Robotics Club of CEG Anna University', 'designation': None, 'contact_no': '+916385123658', 'contactable_id': 255931, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'roboclubofceg@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/ideathon-yhills-253975</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>[{'id': 1025292, 'name': 'Aman Kumar', 'designation': None, 'contact_no': '+919003718469', 'contactable_id': 253975, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'hr@yhills.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/devdays22-devdays22-institute-of-electrical-and-electronics-engineers-gtbit-256540</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>[{'id': 1026942, 'name': 'Jyotika Israni', 'designation': None, 'contact_no': '', 'contactable_id': 256540, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'jyotikaisrani@ieee.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/cyber-cypher-hackathon-cyber-cypher-narsee-monjee-institute-of-management-studies-nmims-mumbai-255299</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>[{'id': 1026292, 'name': 'Yashvi Agrawal', 'designation': None, 'contact_no': '+919167519809', 'contactable_id': 255299, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'yashvi.agrawal04@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/design-heist-bharati-vidyapeeths-college-of-engineering-bvcoe-new-delhi-256335</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>[{'id': 1026825, 'name': 'Shivam Jain', 'designation': None, 'contact_no': '9990339112', 'contactable_id': 256335, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'bvpieee.info@gmail.com'}, {'id': 1026826, 'name': 'Nikita Tewary', 'designation': None, 'contact_no': '8825191834', 'contactable_id': 256335, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'bvpieee.info@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/indias-largest-pupa-hackathon-for-digital-media-mentorsity-pvt-ltd-256245</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>[{'id': 1026772, 'name': 'Gaurang Jindal', 'designation': None, 'contact_no': '9891529229', 'contactable_id': 256245, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'admin@digitalinvesto.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/battle-of-bytes-tech-marathon22-deen-dayal-upadhaya-college-dduc-university-of-delhi-du-new-delhi-255970</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>[{'id': 1026590, 'name': 'Abhishek Singh Yadav', 'designation': None, 'contact_no': '+919451055780', 'contactable_id': 255970, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'abhishek.20hcs4103@ddu.du.ac.in'}, {'id': 1026591, 'name': 'Gaurav Kumar', 'designation': None, 'contact_no': '9711643948', 'contactable_id': 255970, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}, {'id': 1026592, 'name': 'Umesh Sugara', 'designation': None, 'contact_no': '9761401674', 'contactable_id': 255970, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}, {'id': 1026593, 'name': 'Falendra Dewangan', 'designation': None, 'contact_no': '7999634451', 'contactable_id': 255970, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/iei-hackathon-v10-srm-university-vadapalani-255805</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>[{'id': 1026520, 'name': 'Keerthivasan D', 'designation': None, 'contact_no': '9176271734', 'contactable_id': 255805, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ieisrmvdp@gmail.com'}, {'id': 1026521, 'name': 'Harshith P', 'designation': None, 'contact_no': '9176850040', 'contactable_id': 255805, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ieisrmvdp@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/webgators-tech-marathon22-deen-dayal-upadhaya-college-dduc-university-of-delhi-du-new-delhi-254246</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>[{'id': 1025458, 'name': 'Abhishek Singh Yadav', 'designation': None, 'contact_no': '+919451055780', 'contactable_id': 254246, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'abhishek.20hcs4103@ddu.du.ac.in'}, {'id': 1025505, 'name': 'Manish Verma ', 'designation': None, 'contact_no': '8076707050', 'contactable_id': 254246, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hack-a-web-e-summit-2022-maulana-azad-national-institute-of-technology-manit-bhopal-255568</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>[{'id': 1026425, 'name': 'Entrepreneurship Cell NIT Bhopal', 'designation': None, 'contact_no': '+919589255239', 'contactable_id': 255568, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'support@ecellnitb.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/codefox-in-association-with-mozilla-firefox-vellore-institute-of-technology-vit-bhopal-255364</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>[{'id': 1026315, 'name': 'Hemang Jiwnani [President of Club]', 'designation': None, 'contact_no': '', 'contactable_id': 255364, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'mfirefox491@gmail.com'}, {'id': 1026316, 'name': 'Janhvi Rajyaguru [Vice President of Club]', 'designation': None, 'contact_no': '', 'contactable_id': 255364, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'vp.mozillafirefoxvitb@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/indias-largest-pupa-hackathon-for-social-media-live-project-internship-mentorsity-pvt-ltd-254896</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>[{'id': 1025888, 'name': 'Gaurang Jindal', 'designation': None, 'contact_no': '9891529229', 'contactable_id': 254896, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'admin@digitalinvesto.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/code-heist-division-2-bennett-university-bu-greater-noida-254422</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>[{'id': 1025575, 'name': 'GDSC Bennett', 'designation': None, 'contact_no': '', 'contactable_id': 254422, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'gdscbennett@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/code-heist-division-1-bennett-university-bu-greater-noida-254402</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>[{'id': 1025564, 'name': 'GDSC Bennett', 'designation': None, 'contact_no': '', 'contactable_id': 254402, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'gdscbennett@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/craze-a-thon-ather-hiring-challenge-ather-energy-254209</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>[{'id': 1025437, 'name': 'Helpdesk', 'designation': None, 'contact_no': '', 'contactable_id': 254209, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'support@dare2compete.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/tri-nit-hackathon-national-institute-of-technology-karnataka-nitk-surathkal-254063</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>[{'id': 1025303, 'name': 'Yash Gupta', 'designation': None, 'contact_no': '+918792870737', 'contactable_id': 254063, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'yash.181it153@nitk.edu.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/indigenous-mechanized-loading-and-unloading-of-food-grains-for-fci-indian-institute-of-technology-iit-delhi-253435</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>[{'id': 1024810, 'name': 'eDC IITD', 'designation': None, 'contact_no': '+918005995622', 'contactable_id': 253435, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'edciitd.team@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/designathon-e-summit-22-national-institute-of-technology-karnataka-nitk-surathkal-253426</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>[{'id': 1024804, 'name': 'E-Cell NITK', 'designation': None, 'contact_no': '+919742546737', 'contactable_id': 253426, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ecell@nitk.edu.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hash-code-google-253220</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>[{'id': 1024693, 'name': 'Hash Code', 'designation': None, 'contact_no': '', 'contactable_id': 253220, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'hashcode@google.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/launchology-vision-launchology-252331</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>[{'id': 1024149, 'name': 'Ishan Deshpande', 'designation': None, 'contact_no': '8582618706', 'contactable_id': 252331, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ishan@launchology.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/irada-innovathon-2022-irada-2022-l-d-college-of-engineering-ldce-ahmedabad-252413</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>[{'id': 1024268, 'name': 'Innovator Club', 'designation': None, 'contact_no': '+917069341333', 'contactable_id': 252413, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ldce.innovatorclub@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hackoverflow-cepheus22-annual-technical-fest-iit-goa-indian-institute-of-technology-iit-goa-252491</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>[{'id': 1024220, 'name': 'Soumya Raj', 'designation': None, 'contact_no': '+919650945193', 'contactable_id': 252491, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'soumya.shrivastva.19041@iitgoa.ac.in'}, {'id': 1024221, 'name': 'Namami Shanker', 'designation': None, 'contact_no': '8840273138', 'contactable_id': 252491, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'namami.shankar.19041@iitgoa.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hack-the-game-cepheus22-annual-technical-fest-iit-goa-indian-institute-of-technology-iit-goa-252532</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>[{'id': 1024243, 'name': 'Soumya Raj', 'designation': None, 'contact_no': '+919650945193', 'contactable_id': 252532, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'soumya.shrivastva.19041@iitgoa.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/kode-a-thon-college-of-engineering-ceg-guindy-251862</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>[{'id': 1023849, 'name': 'S. Soumya', 'designation': None, 'contact_no': '9498821520', 'contactable_id': 251862, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'xceed@cegtechforum.in'}, {'id': 1023850, 'name': 'Vignesh Kumar ', 'designation': None, 'contact_no': '9790952568', 'contactable_id': 251862, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'xceed@cegtechforum.in'}, {'id': 1023900, 'name': 'Harini V. K.', 'designation': None, 'contact_no': '7550372274', 'contactable_id': 251862, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'marketing@cegtechforum.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/dframe-the-uiux-design-hackathon-udgam-2022-indian-institute-of-technology-iit-guwahati-251886</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>[{'id': 1023857, 'name': 'ECell IIT Guwahati', 'designation': None, 'contact_no': '+917637833974', 'contactable_id': 251886, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'edc@iitg.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/unreality-build-exun-2021-22-delhi-public-school-r-k-puram-251131</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>[{'id': 1023431, 'name': 'Exun Clan', 'designation': None, 'contact_no': '+919650737950', 'contactable_id': 251131, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'exun@dpsrkp.net'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/build-hackathon-exun-2021-22-delhi-public-school-r-k-puram-251139</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>[{'id': 1023432, 'name': 'Exun Clan', 'designation': None, 'contact_no': '+919650737950', 'contactable_id': 251139, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'exun@dpsrkp.net'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/code-mantra-amietech-tech-fest22-institution-of-electronics-and-telecommunication-engineers-251191</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>[{'id': 1023472, 'name': 'Chandu', 'designation': None, 'contact_no': '9573517214', 'contactable_id': 251191, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'team.amietech@gmail.com'}, {'id': 1023703, 'name': 'Rohit', 'designation': None, 'contact_no': '9390447830', 'contactable_id': 251191, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/productathon-software-hackathon-e-summit-2022-iit-roorkee-indian-institute-of-technology-iit-roorkee-251219</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>[{'id': 1023596, 'name': 'E Summit', 'designation': None, 'contact_no': '7073250472', 'contactable_id': 251219, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'esummit@iitr.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/innovatio-infinitum-exun-2021-22-delhi-public-school-r-k-puram-251200</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>[{'id': 1023455, 'name': 'Exun Clan', 'designation': None, 'contact_no': '+919650737950', 'contactable_id': 251200, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'exun@dpsrkp.net'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/make-a-thon-exun-2021-22-delhi-public-school-r-k-puram-251202</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>[{'id': 1023457, 'name': 'Exun Clan', 'designation': None, 'contact_no': '+919650737950', 'contactable_id': 251202, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'exun@dpsrkp.net'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/source-code-kascade-telangana-and-andhra-pradesh-kshitij-indian-institute-of-technology-iit-kharagpur-251082</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>[{'id': 1023399, 'name': 'Saurav', 'designation': None, 'contact_no': '+917564024333', 'contactable_id': 251082, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ss.saurav@ktj.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/spit-hackathon-oculus-spit-sardar-patel-institute-of-technology-spit-mumbai-250860</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>[{'id': 1023318, 'name': 'Smrithi Agarwal', 'designation': None, 'contact_no': '8369233687', 'contactable_id': 250860, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'smrithi.agrawal@spit.ac.in'}, {'id': 1023322, 'name': 'Mihir Nikam', 'designation': None, 'contact_no': '9987501859', 'contactable_id': 250860, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'mihir.nikam@spit.ac.in'}, {'id': 1023323, 'name': 'Aarnav Joshi', 'designation': None, 'contact_no': '9967068960', 'contactable_id': 250860, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'aarnav.joshi@spit.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/conuhacks-vi-concordia-university-montreal-quebec-250541</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>[{'id': 1023123, 'name': 'ConUHacks', 'designation': None, 'contact_no': '', 'contactable_id': 250541, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'conuhacks@ecaconcordia.ca'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hackbmu-50-bml-munjal-university-bmu-gurgaon-250263</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>[{'id': 1022977, 'name': 'ACM BMU Student Chapter', 'designation': None, 'contact_no': '6302006563', 'contactable_id': 250263, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'acm@bmu.edu.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/ravikiran-infotech-web-crawler-hackathon-shaastra-2022-indian-institute-of-technology-iit-madras-250267</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>[{'id': 1022975, 'name': 'Abhiram G', 'designation': None, 'contact_no': '+919676617070', 'contactable_id': 250267, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'gabhiram@smail.iitm.ac.in'}, {'id': 1022976, 'name': 'Parth Arora', 'designation': None, 'contact_no': '7259643817', 'contactable_id': 250267, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'parth.arora@smail.iitm.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/health-share-knotters-249987</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>[{'id': 1022951, 'name': 'Knotters', 'designation': None, 'contact_no': '9311797944', 'contactable_id': 249987, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'contact@knotters.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/indias-largest-pupa-tech-hackathon-for-front-end-developers-live-project-internship-mentorsity-pvt-ltd-250124</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>[{'id': 1022903, 'name': 'Gaurang Jindal', 'designation': None, 'contact_no': '9891529229', 'contactable_id': 250124, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'admin@digitalinvesto.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/matlab-hackathon-institute-of-technology-nirma-university-itnu-ahmedabad-249375</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>[{'id': 1022625, 'name': 'Abhishek Zinzuvadiya', 'designation': None, 'contact_no': '9265711651', 'contactable_id': 249375, 'contactable_type': 'App\\Model\\Opportunity', 'email': '19bec149@nirmauni.ac.in'}, {'id': 1022626, 'name': 'Viraj Mankad', 'designation': None, 'contact_no': '9558369922', 'contactable_id': 249375, 'contactable_type': 'App\\Model\\Opportunity', 'email': '18bec052@nirmauni.ac.in'}, {'id': 1022688, 'name': 'Harsh Panara', 'designation': None, 'contact_no': '8511459668', 'contactable_id': 249375, 'contactable_type': 'App\\Model\\Opportunity', 'email': '19bec083@nirmauni.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hacxmas-an-online-hackathon-begig-249582</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>[{'id': 1022712, 'name': 'Raunak Kumar', 'designation': None, 'contact_no': '7011571373', 'contactable_id': 249582, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'raunak@begig.io'}, {'id': 1022713, 'name': 'Deepanshu Yadav', 'designation': None, 'contact_no': '9999168656', 'contactable_id': 249582, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'deepanshu@begig.io'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/rubix-hackathon-2022-rubix-2022-thadomal-shahani-engineering-college-tsec-mumbai-247909</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>[{'id': 1022703, 'name': 'CSI TSEC', 'designation': None, 'contact_no': '9619845251', 'contactable_id': 247909, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'csitsec21@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/astrazeneca-ai-hackathon-shaastra-2022-indian-institute-of-technology-iit-madras-249462</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>[{'id': 1022658, 'name': 'Contact - Email', 'designation': None, 'contact_no': '', 'contactable_id': 249462, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ai_events@shaastra.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/online-hackathon-festival-ohf-2022-nominations-dare2compete-249483</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>[{'id': 1022665, 'name': 'Helpdesk', 'designation': None, 'contact_no': '', 'contactable_id': 249483, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'support@dare2compete.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/the-smart-hackathon-emancipation-capital-249180</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>[{'id': 1022497, 'name': 'Ranjan', 'designation': None, 'contact_no': '9264477176', 'contactable_id': 249180, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'admin@emancipation.co.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/indias-premier-monthly-coding-challenge-december-2021-newton-schoolns-bengaluru-249001</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>[{'id': 1022441, 'name': 'Shashank Chandel', 'designation': None, 'contact_no': '', 'contactable_id': 249001, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'shashank@newtonschool.co'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/mtx-hackolympics-20-shaastra-2022-indian-institute-of-technology-iit-madras-248600</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>[{'id': 1022191, 'name': 'Hariharan P', 'designation': None, 'contact_no': '7010273811', 'contactable_id': 248600, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'mtx.hackathon@gmail.com'}, {'id': 1022192, 'name': 'Nidhi Sonwane', 'designation': None, 'contact_no': '9594457298', 'contactable_id': 248600, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'mtx.hackathon@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/gaming-frontier-challenge-game-development-track-shaastra-iit-madras-indian-institute-of-technology-iit-madras-248961</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>[{'id': 1022359, 'name': 'Abhiram Nair', 'designation': None, 'contact_no': '7204580729', 'contactable_id': 248961, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'summit@shaastra.org'}, {'id': 1022360, 'name': 'Khadyot G', 'designation': None, 'contact_no': '9390331228', 'contactable_id': 248961, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'summit@shaastra.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/source-code-kascade-utter-pradesh-kshitij-indian-institute-of-technology-iit-kharagpur-248935</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>[{'id': 1022354, 'name': 'Saurav', 'designation': None, 'contact_no': '', 'contactable_id': 248935, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ss.saurav@ktj.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/codehack-hackoverflow-society-248623</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>[{'id': 1022207, 'name': 'Hackoverflow Society', 'designation': None, 'contact_no': '8252384481', 'contactable_id': 248623, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'hackoverflow@cumail.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/intellect-global-hackathon-intellect-design-arena-247390</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>[{'id': 1021725, 'name': 'Helpdesk', 'designation': None, 'contact_no': '', 'contactable_id': 247390, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'support@dare2compete.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/wells-fargo-quantitative-ai-hackathon-shaastra-2022-indian-institute-of-technology-iit-madras-248431</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>[{'id': 1022110, 'name': 'K S Rishikesh ', 'designation': None, 'contact_no': '9884030029', 'contactable_id': 248431, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ch20b087@smail.iitm.ac.in'}, {'id': 1022111, 'name': 'Archish S', 'designation': None, 'contact_no': '8438322870', 'contactable_id': 248431, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'archish@smail.iitm.ac.in'}, {'id': 1022112, 'name': 'Helpdesk', 'designation': None, 'contact_no': '', 'contactable_id': 248431, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ai_events@shaastra.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hackwie-20-maharaja-surajmal-institute-of-technology-msit-new-delhi-248376</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>[{'id': 1022052, 'name': 'IEEE WIE, MSIT', 'designation': None, 'contact_no': '', 'contactable_id': 248376, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'msitwie@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/data-analytics-national-students-space-challenge-2021-indian-institute-of-technology-iit-kharagpur-248280</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>[{'id': 1021999, 'name': 'Sai Swaroop', 'designation': None, 'contact_no': '', 'contactable_id': 248280, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'saiswaroop.nssc@gmail.com'}, {'id': 1022000, 'name': 'Amritakshya Purakayastha', 'designation': None, 'contact_no': '', 'contactable_id': 248280, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'amritakshya.nssc@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/encipher-instabase-246738</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>[{'id': 1025459, 'name': 'Helpdesk', 'designation': None, 'contact_no': '', 'contactable_id': 246738, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'support@dare2compete.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/encode-code-to-innovate-udgam-2022-indian-institute-of-technology-iit-guwahati-247454</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>[{'id': 1021648, 'name': 'E-Cell IIT Guwahati', 'designation': None, 'contact_no': '+917637833974', 'contactable_id': 247454, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'edc@iitg.ac.in'}, {'id': 1021649, 'name': 'Coding Club IIT Guwahati', 'designation': None, 'contact_no': '', 'contactable_id': 247454, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'codingclubiitg@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/codefest-appathon-eduonetech-248062</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>[{'id': 1021915, 'name': 'Eduone Tech', 'designation': None, 'contact_no': '+919994188361', 'contactable_id': 248062, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'admin@eduonetech.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/winter-code-stack-dr-d-y-patil-institute-of-technology-247834</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>[{'id': 1021807, 'name': 'ACES DYP', 'designation': None, 'contact_no': '+919158191727', 'contactable_id': 247834, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'acesdyp1@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/project-a-thon-vellore-institute-of-technology-vit-chennai-246620</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>[{'id': 1021448, 'name': 'ACM Student Chapter VITCC', 'designation': None, 'contact_no': '8160266610', 'contactable_id': 246620, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'vitcc.acmsc@vit.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/innovate-best-out-of-waste-piet-panipat-institute-of-engineering-technology-piet-panipat-247083</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>[{'id': 1021506, 'name': 'Rohit Verma', 'designation': None, 'contact_no': '+919625123027', 'contactable_id': 247083, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'rohitpawanverma9@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/the-new-normal-maharaja-surajmal-institute-of-technology-msit-new-delhi-244970</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>[{'id': 1020594, 'name': 'Deekshant Wadhwa', 'designation': None, 'contact_no': '', 'contactable_id': 244970, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'deekshant@ieee.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/december-of-algorithms-sri-venkateshwara-college-of-engineering-svce-kancheepuram-chennai-246950</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>[{'id': 1021440, 'name': 'Benita Majo', 'designation': None, 'contact_no': '', 'contactable_id': 246950, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'benitamajo@gmail.com'}, {'id': 1021441, 'name': 'Nikhilesh', 'designation': None, 'contact_no': '', 'contactable_id': 246950, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'nikhileshjr08@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/capture-the-flag-shaastra-2022-indian-institute-of-technology-iit-madras-244858</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>[{'id': 1020558, 'name': 'Abhiram G', 'designation': None, 'contact_no': '+919676617070', 'contactable_id': 244858, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'gabhiram@smail.iitm.ac.in'}, {'id': 1020559, 'name': 'Aniketh', 'designation': None, 'contact_no': '7358659007', 'contactable_id': 244858, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ep20b009@smail.iitm.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/code-conduit-tech-panathenaea-bennett-university-bu-greater-noida-245944</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>[{'id': 1020965, 'name': 'Abhinav Chaudhary', 'designation': None, 'contact_no': '7303508855', 'contactable_id': 245944, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'acm@bennett.edu.in'}, {'id': 1020966, 'name': 'Arshit Arora', 'designation': None, 'contact_no': '7589423463', 'contactable_id': 245944, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'geeksforgeeks.bu@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/e-contest-shaastra-2022-indian-institute-of-technology-iit-madras-245123</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>[{'id': 1020641, 'name': 'Shaastra E-Contest', 'designation': None, 'contact_no': '', 'contactable_id': 245123, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'e_contest@shaastra.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/apptitude-aryakul-college-of-management-acm-natkur-uttar-pradesh-244529</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>[{'id': 1020488, 'name': 'Rishabh Keshan', 'designation': None, 'contact_no': '8820754801', 'contactable_id': 244529, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'rishabhkeshan@gmail.com'}, {'id': 1020535, 'name': 'Sumona Sud', 'designation': None, 'contact_no': '9741582714', 'contactable_id': 244529, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'sumonasud@acm.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/rl-games-shaastra-2022-indian-institute-of-technology-iit-madras-244941</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>[{'id': 1020586, 'name': 'Nirupama S', 'designation': None, 'contact_no': '9962571729', 'contactable_id': 244941, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ee20b092@smail.iitm.ac.in'}, {'id': 1020648, 'name': 'Vinayak Gupta', 'designation': None, 'contact_no': '9500180979', 'contactable_id': 244941, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ee20b152@smail.iitm.ac.in'}, {'id': 1021014, 'name': 'Archish S', 'designation': None, 'contact_no': '8438322870', 'contactable_id': 244941, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'me20b032@smail.iitm.ac.in'}, {'id': 1021019, 'name': 'Helpdesk', 'designation': None, 'contact_no': '', 'contactable_id': 244941, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ai_events@shaastra.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/enigma-8-a-cryptic-hunt-ieee-vit-vellore-244860</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>[{'id': 1020560, 'name': 'IEEE VIT', 'designation': None, 'contact_no': '+917721036359', 'contactable_id': 244860, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ieeevitvelloresb@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/indias-largest-pupa-hackathon-for-finance-live-project-internship-mentorsity-pvt-ltd-244506</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>[{'id': 1020481, 'name': 'Gaurang Jindal', 'designation': None, 'contact_no': '9891529229', 'contactable_id': 244506, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'admin@digitalinvesto.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/optimize-prime-phase-shift-2021-bms-college-of-engineering-bengaluru-242349</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>[{'id': 1019732, 'name': 'Shree Charan ', 'designation': None, 'contact_no': '9606604957', 'contactable_id': 242349, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'shreecharan.is@bmsce.ac.in'}, {'id': 1019733, 'name': 'Manvith Reddy ', 'designation': None, 'contact_no': '9900002790', 'contactable_id': 242349, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'manvithreddy.is20@bmsce.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/digital-mystery-phase-shift-2021-bms-college-of-engineering-bengaluru-242340</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>[{'id': 1019728, 'name': 'Mohit Raj Bhurat', 'designation': None, 'contact_no': '+918147197203', 'contactable_id': 242340, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'mohitraj.me19@bmsce.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/drone-applications-hackathon-shaastra-2022-drone-applications-hackathon-shaastra-2022-indian-institute-of-tech-243779</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>[{'id': 1020299, 'name': 'Sai Kumar Reddy', 'designation': None, 'contact_no': '9515697337', 'contactable_id': 243779, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'drone_applications@shaastra.org'}, {'id': 1020300, 'name': 'Tanya Arulalan', 'designation': None, 'contact_no': '7337732766', 'contactable_id': 243779, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'drone_applications@shaastra.org'}, {'id': 1020301, 'name': 'R Tharrunkumar', 'designation': None, 'contact_no': '8939101980', 'contactable_id': 243779, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'drone_applications@shaastra.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/showcase-your-circuit-designing-skills-simu-x-bansilal-ramnath-agarwal-charitable-trusts-vishwakarma-institute-243719</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>[{'id': 1020239, 'name': 'Patil Omkar', 'designation': None, 'contact_no': '9322330392', 'contactable_id': 243719, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'omkar.patil20@vit.edu'}, {'id': 1020240, 'name': 'Niraj Jangale', 'designation': None, 'contact_no': '7666326897', 'contactable_id': 243719, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'niraj.jangale20@vit.edu'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/r-street-quantitative-challenge-indian-institute-of-technology-iit-roorkee-243672</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>[{'id': 1020227, 'name': 'Saurabh Agarwal', 'designation': None, 'contact_no': '', 'contactable_id': 243672, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'saurabhagarwal2002@gmail.com'}, {'id': 1020228, 'name': 'Yash Khandelwal', 'designation': None, 'contact_no': '', 'contactable_id': 243672, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'yashkhandelwal523@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/indias-premier-monthly-coding-challenge-november-2021-newton-schoolns-bengaluru-242924</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>[{'id': 1019975, 'name': 'Shashank Chandel', 'designation': None, 'contact_no': '', 'contactable_id': 242924, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'shashank@newtonschool.co'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/designathon-messi21-sri-sairam-institute-of-technology-ssit-tamil-nadu-241632</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>[{'id': 1019468, 'name': 'Pavithra R', 'designation': None, 'contact_no': '7358504388', 'contactable_id': 241632, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'sit19messi2021@gmail.com'}, {'id': 1019469, 'name': 'Harish K', 'designation': None, 'contact_no': '8248093223', 'contactable_id': 241632, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'sit19me042@sairamtap.edu.in'}, {'id': 1019470, 'name': 'Anand SM', 'designation': None, 'contact_no': '9444049263', 'contactable_id': 241632, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'anandsomu5@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/code-creed-missioned-241137</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>[{'id': 1019327, 'name': 'Shubham Saurav', 'designation': None, 'contact_no': '', 'contactable_id': 241137, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'sssaurav5778@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/capture-the-flag-ace-technical-day-20-vivekananda-institute-of-professional-studies-vips-delhi-241126</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>[{'id': 1019317, 'name': 'Ayan Ambesh', 'designation': None, 'contact_no': '9311364109', 'contactable_id': 241126, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}, {'id': 1019318, 'name': 'Tanvi Sharma', 'designation': None, 'contact_no': '8920559918', 'contactable_id': 241126, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/crowdhacks-crowdhack-guru-tegh-bahadur-institute-of-technology-gtbit-new-delhi-240684</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>[{'id': 1019168, 'name': 'Nancy Kushwaha', 'designation': None, 'contact_no': '', 'contactable_id': 240684, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'nancykushwaha.02@ieee.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hc-educates-20-hackathon-vellore-institute-of-technology-vit-chennai-240520</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>[{'id': 1019136, 'name': 'HackClub VIT Chennai', 'designation': None, 'contact_no': '+917824039072', 'contactable_id': 240520, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'events.hackclubvitc@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/code-run-computer-society-of-mitanna-universitychennai-240425</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>[{'id': 1019121, 'name': 'Logesh Ramesh', 'designation': None, 'contact_no': '9003543217', 'contactable_id': 240425, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'mit.csmit2021@gmail.com'}, {'id': 1019122, 'name': 'Siva Hari A S', 'designation': None, 'contact_no': '9944027691', 'contactable_id': 240425, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'mit.csmit2021@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/inspirathon-ieee-nsut-inspire-netaji-subhas-university-of-technology-nsut-delhi-239307</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>[{'id': 1018811, 'name': 'IEEE NSUT Outreach', 'designation': None, 'contact_no': '', 'contactable_id': 239307, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'outreach.ieeensut@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/absolute-hackathon-teachupy-239433</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>[{'id': 1018869, 'name': 'TeachUPy', 'designation': None, 'contact_no': '+918778743533', 'contactable_id': 239433, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'support@teachupy.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/coding-hackathon-eduonetech-239421</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>[{'id': 1018854, 'name': 'EduoneTech', 'designation': None, 'contact_no': '+919994188361', 'contactable_id': 239421, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'admin@eduonetech.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/coding-challenge-appsdreamz-technologies-237990</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>[{'id': 1018626, 'name': 'Aneel Kumar Bonu', 'designation': None, 'contact_no': '+918247716036', 'contactable_id': 237990, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'aneel@appsdreamz.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>https://unstop.com/job/internathon-60-harbourx-237582</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>[{'id': 1018593, 'name': 'Srijan Chhabda', 'designation': None, 'contact_no': '9176892863', 'contactable_id': 237582, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'srijan@harbourx.co'}, {'id': 1018594, 'name': 'Ahmad Yasir ', 'designation': None, 'contact_no': '8840285952', 'contactable_id': 237582, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'yasir120916@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/kharagpur-data-science-hackathon-indian-institute-of-technology-iit-kharagpur-232484</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>[{'id': 1017893, 'name': 'KDAG IIT Kgp.', 'designation': None, 'contact_no': '7873100241', 'contactable_id': 232484, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'kdagiit@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/knight-hacks-university-of-central-florida-236893</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>[{'id': 1018536, 'name': 'Knight Hacks', 'designation': None, 'contact_no': '', 'contactable_id': 236893, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'team@knighthacks.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/code-a-rangoli-national-institute-of-technology-nit-calicut-236257</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>[{'id': 1018427, 'name': 'Faris Ali', 'designation': None, 'contact_no': '7356164971', 'contactable_id': 236257, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'f123faris@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/innerve-summer-of-code-innerve-2021-indira-gandhi-delhi-technical-university-for-women-igdtuw-delhi-227229</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>[{'id': 1017422, 'name': 'Innerve', 'designation': None, 'contact_no': '', 'contactable_id': 227229, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'innervesummerofcode2021@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/innerve-hacks-innerve-2021-indira-gandhi-delhi-technical-university-for-women-igdtuw-delhi-225999</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>[{'id': 1017418, 'name': 'Innerve', 'designation': None, 'contact_no': '', 'contactable_id': 225999, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'innervehacks2021@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/infinity-code-innerve-2021-indira-gandhi-delhi-technical-university-for-women-igdtuw-delhi-235856</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>[{'id': 1018347, 'name': 'Innerve', 'designation': None, 'contact_no': '', 'contactable_id': 235856, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'infinitycode2021@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/building-blocks-innerve-2021-indira-gandhi-delhi-technical-university-for-women-igdtuw-delhi-235903</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>[{'id': 1018353, 'name': 'Innerve', 'designation': None, 'contact_no': '', 'contactable_id': 235903, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'building.blocks.innerve@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>https://unstop.com/competition/reign-reimagine-the-way-we-bank-kotak-mahindra-bank-ltd-235665</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>[{'id': 1018733, 'name': 'Helpdesk', 'designation': None, 'contact_no': '', 'contactable_id': 235665, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'support@dare2compete.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/dinoraptor-innerve-2021-indira-gandhi-delhi-technical-university-for-women-igdtuw-delhi-235911</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>[{'id': 1018358, 'name': 'Innerve', 'designation': None, 'contact_no': '', 'contactable_id': 235911, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'dinoraptorgame2021@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/garuda-hacks-20-garuda-hacks-233694</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>[{'id': 1018126, 'name': 'Garuda Hacks', 'designation': None, 'contact_no': '', 'contactable_id': 233694, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'team@garudahacks.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/internathon-50-harbour-x-232733</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>[{'id': 1017966, 'name': 'Srijan Chhabda', 'designation': None, 'contact_no': '+919176892863', 'contactable_id': 232733, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'harbourx2020@gmail.com'}, {'id': 1017971, 'name': 'Ahmad Yasir', 'designation': None, 'contact_no': '+918840285952', 'contactable_id': 232733, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'yasir120916@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/tiger-hacks-university-of-missouri-columbia-232370</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>[{'id': 1017880, 'name': 'Tiger Hacks', 'designation': None, 'contact_no': '', 'contactable_id': 232370, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'tigerhackshd@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/spectra-st-josephs-college-of-engineering-chennai-231507</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>[{'id': 1017809, 'name': 'Ashwin Kumar U', 'designation': None, 'contact_no': '+919445550193', 'contactable_id': 231507, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ashwin102000@gmail.com'}, {'id': 1017810, 'name': 'SJCE IEEE CS', 'designation': None, 'contact_no': '', 'contactable_id': 231507, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'sjceieeecs@gmail.com'}, {'id': 1017811, 'name': 'Jeevananthan', 'designation': None, 'contact_no': '+9360564724', 'contactable_id': 231507, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}, {'id': 1017812, 'name': 'Magesh S', 'designation': None, 'contact_no': '8610246119', 'contactable_id': 231507, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/ecovision-centre-for-innovation-and-incubation-nitw-230963</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>[{'id': 1017779, 'name': 'Innovation Garage NIT Warangal', 'designation': None, 'contact_no': '8094556379', 'contactable_id': 230963, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ig-nitw@student.nitw.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hackuiet-university-institute-of-engineering-and-technology-uiet-chandigarh-231364</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>[{'id': 1017791, 'name': 'Kanishk Tyagi', 'designation': None, 'contact_no': '9760892957', 'contactable_id': 231364, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'pclubuiet@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/interizon-hackathon-2021-interizon-hacks-230726</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>[{'id': 1017743, 'name': 'Admin', 'designation': None, 'contact_no': '9629018893', 'contactable_id': 230726, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'admin@interizonhacks.live'}, {'id': 1017744, 'name': 'Magar Pranathi', 'designation': None, 'contact_no': '9390460889', 'contactable_id': 230726, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'magarpranathi@interizonhacks.live'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/space-invaders-innerve-2021-indira-gandhi-delhi-technical-university-for-women-igdtuw-delhi-228358</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>[{'id': 1017561, 'name': 'Innerve', 'designation': None, 'contact_no': '+919871683415', 'contactable_id': 228358, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'innerveconvener21@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/ideathon-for-the-entrepreneur-in-you-other-organization-not-listed-here-224308</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>[{'id': 1017354, 'name': 'Shivali Jindal', 'designation': None, 'contact_no': '8860450965', 'contactable_id': 224308, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'shivali@karibykriti.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>https://unstop.com/creative-cultural-event/web-o-code-bvest-2021-bharati-vidyapeeths-college-of-engineering-bvcoe-new-delhi-226599</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>[{'id': 1017286, 'name': 'Gurjot Singh Marwah', 'designation': None, 'contact_no': '7503773552', 'contactable_id': 226599, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'gurjotsm1899@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/what-the-haick-innerve-2021-indira-gandhi-delhi-technical-university-for-women-igdtuw-delhi-226231</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>[{'id': 1017201, 'name': 'Innerve', 'designation': None, 'contact_no': '+919871683415', 'contactable_id': 226231, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'innerveconvener21@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/indias-premier-monthly-coding-challenge-october-2021-newton-schoolns-bengaluru-225802</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>[{'id': 1017102, 'name': 'Shashank Chandel', 'designation': None, 'contact_no': '', 'contactable_id': 225802, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'shashank@newtonschool.co'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hackprinceton-princeton-university-225755</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>[{'id': 1017097, 'name': 'HackPrinceton', 'designation': None, 'contact_no': '', 'contactable_id': 225755, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'team@hackprinceton.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/bitathon-goa-institute-of-management-gim-goa-225597</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>[{'id': 1017063, 'name': 'Bitathon', 'designation': None, 'contact_no': '9413558179', 'contactable_id': 225597, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'bitathon@gim.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/devbhoomi-cyber-hackathon-university-of-petroleum-energy-studies-upes-dehradun-224760</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>[{'id': 1016870, 'name': 'Arnav Shah', 'designation': None, 'contact_no': '9935166131', 'contactable_id': 224760, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'devbhoomihackathon@gmail.com'}, {'id': 1016871, 'name': 'Swarnim Gandhi', 'designation': None, 'contact_no': '9627886073', 'contactable_id': 224760, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'devbhoomihackathon@gmail.com'}, {'id': 1016872, 'name': 'Ramya Mihir', 'designation': None, 'contact_no': '9760573827', 'contactable_id': 224760, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'devbhoomihackathon@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/world-youth-coders-hackathon-2021-world-coding-club-224722</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>[{'id': 1016851, 'name': 'World Coding Club', 'designation': None, 'contact_no': '', 'contactable_id': 224722, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'info@worldcodingclub.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/bot-a-thon-innerve-2021-indira-gandhi-delhi-technical-university-for-women-igdtuw-delhi-223992</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>[{'id': 1016711, 'name': 'Innerve', 'designation': None, 'contact_no': '', 'contactable_id': 223992, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'innervebotathon@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/consolelog-replicate-dhruva-iiit-kottayams-annual-technical-fest-indian-institute-of-information-technology-ii-221911</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>[{'id': 1016287, 'name': 'Shashank Srivastava', 'designation': None, 'contact_no': '9793422020', 'contactable_id': 221911, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'shashank.srivastava25sks@gmail.com'}, {'id': 1016288, 'name': 'Sarthak Bindal', 'designation': None, 'contact_no': '7987957308', 'contactable_id': 221911, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'bindalsarthak03@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/code-to-care-challenge-2021-philips-222688</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>[{'id': 1016741, 'name': 'Helpdesk', 'designation': None, 'contact_no': '', 'contactable_id': 222688, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'support@dare2compete.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/code-red-hackathon-vivekananda-global-university-vgu-jaipur-rajasthan-223703</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>[{'id': 1016649, 'name': 'ACIC VGU Foundation', 'designation': None, 'contact_no': '+918901596432', 'contactable_id': 223703, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'hackathon.acic@vgu.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/commit-the-flag-dhruva-indian-institute-of-information-technology-iiit-kottayam-224044</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>[{'id': 1016715, 'name': 'Gouri Nair', 'designation': None, 'contact_no': '+918606922585', 'contactable_id': 224044, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'gourinair20bec7@iiitkottayam.ac.in'}, {'id': 1016716, 'name': 'Nikhil Menon', 'designation': None, 'contact_no': '7259395776', 'contactable_id': 224044, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'nikhilmenon20bcs16@iiitkottayam.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/code-heist-yhills-223204</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>[{'id': 1016617, 'name': 'Aman Kumar', 'designation': None, 'contact_no': '+919003718469', 'contactable_id': 223204, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'hr@yhills.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/code-fiesta-tantrafiesta-2021-indian-institute-of-information-technology-iiit-nagpur-223495</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>[{'id': 1016605, 'name': 'TantraFiesta, IIIT Nagpur', 'designation': None, 'contact_no': '8700957176', 'contactable_id': 223495, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'tantrafiesta@iiitn.ac.in'}, {'id': 1016606, 'name': 'Anshuman Das', 'designation': None, 'contact_no': '8527032964', 'contactable_id': 223495, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ashuman2abhi@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/codex-20-national-institute-of-technology-nit-patna-222906</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>[{'id': 1016495, 'name': 'Kshitiz Jha', 'designation': None, 'contact_no': '+917461848572', 'contactable_id': 222906, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'jhakshitiz911@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hack-duke-duke-university-222769</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>[{'id': 1016486, 'name': 'Hack Duke', 'designation': None, 'contact_no': '', 'contactable_id': 222769, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'hackers@hackduke.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/mhacks-14-university-of-michigan-221134</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>[{'id': 1016153, 'name': 'MHacks ', 'designation': None, 'contact_no': '', 'contactable_id': 221134, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'hackathon@umich.edu'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/climathon-panaji-2021-climate-collective-foundation-221117</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>[{'id': 1016149, 'name': 'Climate Collective', 'designation': None, 'contact_no': '', 'contactable_id': 221117, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'info@climatecollective.net'}, {'id': 1016150, 'name': 'Harshad Gupta', 'designation': None, 'contact_no': '', 'contactable_id': 221117, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'harshad@climatecollective.net'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/code-triathlon-tech-event-invente-60-tech-event-cse-sri-sivasubramaniya-nadar-ssn-college-of-engineering-chenn-220628</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>[{'id': 1016029, 'name': 'Code Triathlon', 'designation': None, 'contact_no': '9445172739', 'contactable_id': 220628, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'codetriathlon@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/battle-of-geeklords-festx-pimpri-chinchwad-college-of-engineering-pccoe-pune-220675</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>[{'id': 1016054, 'name': 'Kartik Deshmukh', 'designation': None, 'contact_no': '9175533690', 'contactable_id': 220675, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/inventino-invente-60-sri-sivasubramaniya-nadar-ssn-college-of-engineering-chennai-220547</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>[{'id': 1016076, 'name': 'Siddharthan A', 'designation': None, 'contact_no': '6385101827', 'contactable_id': 220547, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'siddharthan183001090@eee.ssn.edu.in'}, {'id': 1016077, 'name': 'Parithi R', 'designation': None, 'contact_no': '9092437531', 'contactable_id': 220547, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'parithi183001062@eee.ssn.edu.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/divhacks-2021-columbia-university-new-york-220433</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>[{'id': 1015987, 'name': 'DivHacks 2021', 'designation': None, 'contact_no': '', 'contactable_id': 220433, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'cu.divhacks@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/ideathon-techquest-delhi-technological-university-dtu-new-delhi-219747</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>[{'id': 1015856, 'name': 'D_Coder', 'designation': None, 'contact_no': '+919354783885', 'contactable_id': 219747, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'techquest.ideathon.2021@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/open-appathon-teachupy-219328</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>[{'id': 1015805, 'name': 'TeachUPy', 'designation': None, 'contact_no': '+918778743533', 'contactable_id': 219328, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'support@teachupy.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/game-jam-2k21-techyon-padre-conceicao-college-of-engineeringgoa-university-218660</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>[{'id': 1015766, 'name': 'Vishrut Mangoli', 'designation': None, 'contact_no': '+919766055610', 'contactable_id': 218660, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'vishrutmangoli@gmail.com'}, {'id': 1015767, 'name': 'Sattyam Mane', 'designation': None, 'contact_no': '8329768577', 'contactable_id': 218660, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'sattyammane03@gmail.com'}, {'id': 1015768, 'name': 'ved kamat', 'designation': None, 'contact_no': '9011289647', 'contactable_id': 218660, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'vedkamat86@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/cuvette-codoctober-hackathon-cuvette-tech-214408</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>[{'id': 1015512, 'name': 'AYUSH AGRAWAL', 'designation': None, 'contact_no': '+919784757306', 'contactable_id': 214408, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ayush@cuvette.tech'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/code-crunch-techyon-padre-conceicao-college-of-engineeringgoa-university-217678</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>[{'id': 1015605, 'name': 'Vishrut Mangoli', 'designation': None, 'contact_no': '+919766055610', 'contactable_id': 217678, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'vishrutmangoli@gmail.com'}, {'id': 1015606, 'name': 'Sakshi Palekar', 'designation': None, 'contact_no': '9146884970', 'contactable_id': 217678, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'sakshipalekar1999@gmail.com'}, {'id': 1015607, 'name': 'Vedang Rane', 'designation': None, 'contact_no': '95187 17583', 'contactable_id': 217678, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'vedangrane95@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hack-o-heist-national-institute-of-technology-nit-patna-216942</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>[{'id': 1015455, 'name': 'Pawan Singh', 'designation': None, 'contact_no': '8707880499', 'contactable_id': 216942, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'pawans.ug19.ec@nitp.ac.in'}, {'id': 1015456, 'name': 'Shashwat Awasthi', 'designation': None, 'contact_no': '7394888169', 'contactable_id': 216942, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'shashwata.ug19.ee@nitp.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/23rd-asef-summer-university-hackatho-asia-europe-foundation-217028</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>[{'id': 1015474, 'name': 'Freya Chow-Paul', 'designation': None, 'contact_no': '6568749724', 'contactable_id': 217028, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'asefsu@asef.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/build-a-thon-guru-gobind-singh-indraprastha-university-ggsipu-delhi-216653</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>[{'id': 1015390, 'name': 'Wamika Jha', 'designation': None, 'contact_no': '9999145866', 'contactable_id': 216653, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ieee.ggsipu@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hackinifinty-invente-60-sri-sivasubramaniya-nadar-ssn-college-of-engineering-chennai-216574</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>[{'id': 1015364, 'name': 'Aishwarya', 'designation': None, 'contact_no': '+917338935634', 'contactable_id': 216574, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'aishwarya18010@ece.ssn.edu.in'}, {'id': 1015839, 'name': 'Nimisha', 'designation': None, 'contact_no': '9840780834', 'contactable_id': 216574, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hackoverflow-cognitia-2021-the-annual-techfest-of-nit-meghalaya-national-institute-of-technology-nit-meghalaya-215008</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>[{'id': 1015115, 'name': 'Coding Club NIT Meghalaya', 'designation': None, 'contact_no': '', 'contactable_id': 215008, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'codingclub@nitm.ac.in'}, {'id': 1015116, 'name': 'Govind Kumar', 'designation': None, 'contact_no': '', 'contactable_id': 215008, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'b18ec025@nitm.ac.in'}, {'id': 1015117, 'name': 'Pankaj Goyal', 'designation': None, 'contact_no': '', 'contactable_id': 215008, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'b18ec009@nitm.ac.in'}, {'id': 1015118, 'name': 'Avishek Paul', 'designation': None, 'contact_no': '', 'contactable_id': 215008, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'b19cs038@nitm.ac.in'}, {'id': 1015119, 'name': 'Meenakshi Kharel', 'designation': None, 'contact_no': '', 'contactable_id': 215008, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'b19cs006@nitm.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/technica-university-of-maryland-215590</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>[{'id': 1015183, 'name': 'Technica', 'designation': None, 'contact_no': '', 'contactable_id': 215590, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'hello@gotechnica.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/icreate-ev-hackathon-icreate-214120</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>[{'id': 1014815, 'name': 'Payal Patel', 'designation': None, 'contact_no': '9913569975', 'contactable_id': 214120, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'payal.patel@icreate.org.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/society-serve-flare-2021-22-indian-institute-of-technology-iit-bombay-214188</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>[{'id': 1014864, 'name': 'NSS IIT Bombay', 'designation': None, 'contact_no': '', 'contactable_id': 214188, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'help.flare.nssiitb@gmail.com'}, {'id': 1014865, 'name': 'Rohan ', 'designation': None, 'contact_no': '8073827438', 'contactable_id': 214188, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'kalbag.rohan.r@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hackumbc-2021-university-of-maryland-213956</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>[{'id': 1014778, 'name': 'HackUMBC', 'designation': None, 'contact_no': '', 'contactable_id': 213956, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'team@hackumbc.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/script4her-hackathon-dhriiti-212478</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>[{'id': 1014547, 'name': 'Contact ScriptHer', 'designation': None, 'contact_no': '', 'contactable_id': 212478, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'Script4her@dhriiti.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/abighyan-revisited-2021-hackathon-abighyan-revisited-2021-srm-university-vadapalani-213759</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>[{'id': 1014736, 'name': 'HariHaran', 'designation': None, 'contact_no': '+919677001745', 'contactable_id': 213759, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'hicreations14@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/cognithon-online-hackathon-cognitia-2021-the-annual-techfest-of-nit-meghalaya-national-institute-of-technology-213499</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>[{'id': 1014698, 'name': 'Robotics Club', 'designation': None, 'contact_no': '', 'contactable_id': 213499, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'robotics.club@nitm.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/indias-premier-monthly-coding-challenge-september-2021-newton-schoolns-bengaluru-212730</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>[{'id': 1014659, 'name': 'Shashank Chandel', 'designation': None, 'contact_no': '', 'contactable_id': 212730, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'shashank@newtonschool.co'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/arduinoatmega328p-hackathon-lonex-211401</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>[{'id': 1014499, 'name': 'Lonex', 'designation': None, 'contact_no': '9431992052', 'contactable_id': 211401, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'lonex@techiqba.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/code-holic-light-school-210505</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>[{'id': 1014454, 'name': 'Saurav', 'designation': None, 'contact_no': '', 'contactable_id': 210505, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'get.lightschool@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/ideate-ideate-sri-sivasubramaniya-nadar-ssn-college-of-engineering-chennai-209859</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>[{'id': 1014417, 'name': 'Ideate 2021', 'designation': None, 'contact_no': '', 'contactable_id': 209859, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'inventeideate2021@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/the-golden-hack-30-wilfrid-laurier-university-canada-207399</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>[{'id': 1014287, 'name': 'The Golden Hack Team', 'designation': None, 'contact_no': '', 'contactable_id': 207399, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'contact@thegoldenhack.ca'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/build-a-thon-indian-institute-of-technology-iit-guwahati-206936</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>[{'id': 1014260, 'name': 'Vighnesh Deshpande', 'designation': None, 'contact_no': '9819532497', 'contactable_id': 206936, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'd.vighnesh@iitg.ac.in'}, {'id': 1014261, 'name': 'Omkar Chaudhari', 'designation': None, 'contact_no': '9136043989', 'contactable_id': 206936, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'c.omkar@iitg.ac.in'}, {'id': 1014262, 'name': 'Pranav Nair', 'designation': None, 'contact_no': '7843092268', 'contactable_id': 206936, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'n.pranav@iitg.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hackharvard-2021-harvard-university-cambridge-204370</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>[{'id': 1013970, 'name': 'HackHarvard', 'designation': None, 'contact_no': '', 'contactable_id': 204370, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'team@hackharvard.io'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/tsec-codestorm-hackathon21-thadomal-shahani-engineering-college-tsec-mumbai-198629</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>[{'id': 1013158, 'name': 'TSEC CodeStorm', 'designation': None, 'contact_no': '', 'contactable_id': 198629, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'tseccodestorm@gmail.com'}, {'id': 1013159, 'name': 'Nikunj', 'designation': None, 'contact_no': '773847293', 'contactable_id': 198629, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}, {'id': 1013160, 'name': 'Gaurav', 'designation': None, 'contact_no': '9930730078', 'contactable_id': 198629, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/personalizzazione-bit-tech-fest-2021-bannari-amman-institute-of-technology-tamil-nadu-202786</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>[{'id': 1013760, 'name': 'Barath Kumar C', 'designation': None, 'contact_no': '+916369138963', 'contactable_id': 202786, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'barathkumar.ee18@bitsathy.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/cec-j-hackathon-engineers-day-2k21-chandigarh-group-of-colleges-cgc-jhanjeri-202191</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>[{'id': 1013786, 'name': 'Chaitanya Goswami', 'designation': None, 'contact_no': '+919599429350', 'contactable_id': 202191, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'cgchaitanya4@gmail.com'}, {'id': 1013787, 'name': 'Abhishek Kumar Gupta', 'designation': None, 'contact_no': '8566077814', 'contactable_id': 202191, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/chamber-of-codes-round-table-dtu-and-codechef-nsut-200992</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>[{'id': 1013552, 'name': 'Saksham Checker', 'designation': None, 'contact_no': '+919013844884', 'contactable_id': 200992, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'checkersaksham@yahoo.com'}, {'id': 1013621, 'name': 'Naman Singh', 'designation': None, 'contact_no': '9315244791', 'contactable_id': 200992, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'snaman431@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/biomed-x-hack-bannari-amman-institute-of-technology-tamil-nadu-200508</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>[{'id': 1013535, 'name': 'Nikesh S', 'designation': None, 'contact_no': '9344138488', 'contactable_id': 200508, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'nikesh.bm19@btisathy.ac.in'}, {'id': 1013536, 'name': 'Bhuvaneshwari M', 'designation': None, 'contact_no': '9498829707', 'contactable_id': 200508, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'bhuvaneshwari.bm19@bitsathy.ac.in'}, {'id': 1013537, 'name': 'SANTHOSH B', 'designation': None, 'contact_no': '9952283422', 'contactable_id': 200508, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'santhosh.bm19@bitsathy.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hophacks-johns-hopkins-university-199957</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>[{'id': 1013402, 'name': 'Support', 'designation': None, 'contact_no': '', 'contactable_id': 199957, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'team@hophacks.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/decipher-the-code-debugging-ubertech-21-srm-institute-of-science-and-technology-vadapalani-campus-199591</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>[{'id': 1013346, 'name': 'Jai Vora', 'designation': None, 'contact_no': '7904650798', 'contactable_id': 199591, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'jm3683@srmist.edu.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hacknpitch-jadavpur-university-entrepreneurship-summit-2021-jadavpur-university-ju-kolkata-197037</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>[{'id': 1013081, 'name': 'Sk Shahnawaz', 'designation': None, 'contact_no': '7908329480', 'contactable_id': 197037, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'hacknpitch@judh.in'}, {'id': 1013225, 'name': 'Swadesh Jana', 'designation': None, 'contact_no': '9330388646', 'contactable_id': 197037, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'swadesh.jana@judh.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/cryptoverse-a-crypto-trading-competition-techniche-indian-institute-of-technology-iit-guwahati-198359</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>[{'id': 1013083, 'name': 'Dhairya', 'designation': None, 'contact_no': '9255141044', 'contactable_id': 198359, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/innovation-cafe-hackathon-2021-hindustan-unilever-limited-hul-197550</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>[{'id': 1012882, 'name': 'Manavi Garg', 'designation': None, 'contact_no': '9599756766', 'contactable_id': 197550, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'manavi.garg@unilever.com'}, {'id': 1012883, 'name': 'Parakh Agarwal', 'designation': None, 'contact_no': '7014431071', 'contactable_id': 197550, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'parakh.agarwal@unilever.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/robotics-continuum-the-northcap-university-ncu-gurgaon-198165</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>[{'id': 1013045, 'name': 'Vasu', 'designation': None, 'contact_no': '+919311646972', 'contactable_id': 198165, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'vasu20ecu022@ncuindia.edu'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/midnight-hacks-midnight-hacks-198257</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>[{'id': 1013064, 'name': 'Midnight Hacks', 'designation': None, 'contact_no': '', 'contactable_id': 198257, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'warren@midnighthacks.tech'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/app-development-competition-nullclass-198197</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>[{'id': 1013050, 'name': 'NullClass', 'designation': None, 'contact_no': '+919566474509', 'contactable_id': 198197, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'support@nullclass.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/crack-the-crisis-ieee-ramaiah-institute-of-technology-197756</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>[{'id': 1012920, 'name': 'Rounit Verma', 'designation': None, 'contact_no': '9798506261', 'contactable_id': 197756, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}, {'id': 1012921, 'name': 'Suhas Katrahalli', 'designation': None, 'contact_no': '6360061986', 'contactable_id': 197756, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/dr-homi-bhabha-national-innovation-challenge-bharati-vidyapeeths-college-of-engineering-bvcoe-new-delhi-197548</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>[{'id': 1012884, 'name': 'BVP ISTE', 'designation': None, 'contact_no': '+918745045678', 'contactable_id': 197548, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'bvpiste2020@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hyperhacks-hyperhacks-197437</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>[{'id': 1012858, 'name': 'HyperHacks', 'designation': None, 'contact_no': '', 'contactable_id': 197437, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'info@hyperhacks.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/e-summit-maharashtra-2021-and-nasa-spaceapps-challenge-padmabhushan-vasantdada-patil-pratishthans-college-of-e-197205</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>[{'id': 1012821, 'name': 'PVPP TPO', 'designation': None, 'contact_no': '8369281087', 'contactable_id': 197205, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'tpo@pvppcoe.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/neural-hacks-20-neural-hacks-197031</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>[{'id': 1012779, 'name': 'Neural Hacks', 'designation': None, 'contact_no': '', 'contactable_id': 197031, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'neuralhacks@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/30-days-of-ml-challenge-semikolan-197034</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>[{'id': 1012781, 'name': 'Team Semikolan', 'designation': None, 'contact_no': '7879712235', 'contactable_id': 197034, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'contact@semikolan.co'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/youthopeian-envirothon-youthopeian-196801</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>[{'id': 1012747, 'name': 'Youthopeian', 'designation': None, 'contact_no': '', 'contactable_id': 196801, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'youthopeian@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/ideathon-aidata-science-design-thinking-virtual-bootcamp-for-102-pass-and-polytechnic-students-aidata-science--196197</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>[{'id': 1012670, 'name': 'Dr. P. Vivekanandan', 'designation': None, 'contact_no': '9566423456', 'contactable_id': 196197, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/spider-20-the-web-crawler-birsa-institute-of-technology-bit-sindri-195391</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>[{'id': 1012497, 'name': 'ISTE BIT Sindri', 'designation': None, 'contact_no': '8579952408', 'contactable_id': 195391, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'istebitsbh01@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/nasa-international-space-apps-challenge-chennai-aaruush-srm-institute-of-science-and-technology-srmist-chennai-195376</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>[{'id': 1012491, 'name': 'Gautam', 'designation': None, 'contact_no': '8120402436', 'contactable_id': 195376, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'csiorg@aaruush.net'}, {'id': 1012492, 'name': 'Harshit', 'designation': None, 'contact_no': '9943521075', 'contactable_id': 195376, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/robohack-10-flyhawk-robospace-pvt-ltd-195307</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>[{'id': 1012470, 'name': 'FlyHawk RoboSpace', 'designation': None, 'contact_no': '9797340543', 'contactable_id': 195307, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'admin@flyhawkrobospace.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/ideathon-envisage21-vellore-institute-of-technology-vit-chennai-195095</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>[{'id': 1012386, 'name': 'HackClub VIT Chennai', 'designation': None, 'contact_no': '', 'contactable_id': 195095, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'events.hackclubvitc@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/auto-potency-hackodisha-national-institute-of-technology-nit-rourkela-194981</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>[{'id': 1012331, 'name': 'Uditanshu Satpathy', 'designation': None, 'contact_no': '', 'contactable_id': 194981, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'uditanshusatpathy23@gmail.com'}, {'id': 1012332, 'name': 'Aniket Pal', 'designation': None, 'contact_no': '', 'contactable_id': 194981, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'aniketindian8@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/replication-hackodisha-national-institute-of-technology-nit-rourkela-194970</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>[{'id': 1012327, 'name': 'Uditanshu Satpathy', 'designation': None, 'contact_no': '', 'contactable_id': 194970, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'uditanshusatpathy23@gmail.com'}, {'id': 1012328, 'name': 'Aniket Pal', 'designation': None, 'contact_no': '', 'contactable_id': 194970, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'aniketindian8@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/beyond-analysis-a-data-science-hackathon-techniche-indian-institute-of-technology-iit-guwahati-194331</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>[{'id': 1012124, 'name': 'Khushi', 'designation': None, 'contact_no': '8379874427', 'contactable_id': 194331, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}, {'id': 1012125, 'name': 'Priya Chaturvedi', 'designation': None, 'contact_no': '7424961621', 'contactable_id': 194331, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}, {'id': 1012126, 'name': 'Nikhil Upadhyay', 'designation': None, 'contact_no': '9559377410', 'contactable_id': 194331, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/innovators-hub-dr-vishwanath-karad-mit-world-peace-university-mit-wpu-pune-194089</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>[{'id': 1012101, 'name': 'Muskan Singh', 'designation': None, 'contact_no': '8980904035', 'contactable_id': 194089, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'muskan9451@gmail.com'}, {'id': 1012102, 'name': 'Disha Gidwani', 'designation': None, 'contact_no': '7093685650', 'contactable_id': 194089, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'dishagidwani2001@gmail.com'}, {'id': 1012103, 'name': 'Jatin Chellani', 'designation': None, 'contact_no': '7999580495', 'contactable_id': 194089, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'jatinchellani02@gmail.com'}, {'id': 1012104, 'name': 'Mayank SIngh', 'designation': None, 'contact_no': '9987281901', 'contactable_id': 194089, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'mayank.singh011@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/code-crush-delhi-technological-university-dtu-new-delhi-194017</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>[{'id': 1012081, 'name': 'Manvi Goel', 'designation': None, 'contact_no': '', 'contactable_id': 194017, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'manvi.missioned@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/wordpress-task-completion-startup-shiksha-193735</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>[{'id': 1012002, 'name': 'Shubahm', 'designation': None, 'contact_no': '+918708816007', 'contactable_id': 193735, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'contact@startupshiksha.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/coderatri-20-vellore-institute-of-technology-vit-chennai-193725</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>[{'id': 1011949, 'name': 'Prakriti Singh', 'designation': None, 'contact_no': '+919084697898', 'contactable_id': 193725, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'coderatri@palsvit.com'}, {'id': 1011950, 'name': 'Daksh Sethi', 'designation': None, 'contact_no': '9079676872', 'contactable_id': 193725, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'coderatri@palsvit.com'}, {'id': 1011951, 'name': 'Jigyasa Saraswat', 'designation': None, 'contact_no': '7896001616', 'contactable_id': 193725, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'coderatri@palsvit.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/futuristfest-2021-women-in-stem-th-193448</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>[{'id': 1011857, 'name': 'Women In Stem TH', 'designation': None, 'contact_no': '', 'contactable_id': 193448, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'womeninstemth@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/css-battle-by-csi-tsec-technext-2021-thadomal-shahani-engineering-college-tsec-mumbai-193172</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>[{'id': 1011804, 'name': 'CSI TSEC', 'designation': None, 'contact_no': '9619845251', 'contactable_id': 193172, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'csitsec21@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/flag-runner-hackathon-cyber-security-works-pvt-ltd-193093</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>[{'id': 1011779, 'name': 'Cyber Security Works Pvt. Ltd.', 'designation': None, 'contact_no': '', 'contactable_id': 193093, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'info@cybersecurityworks.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/case-o-heist-birsa-institute-of-technology-bit-sindri-192981</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>[{'id': 1011760, 'name': 'Model Club 2k19', 'designation': None, 'contact_no': '+918294218713', 'contactable_id': 192981, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'modelclub2k19@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/error-by-night-2021-stjosephs-institute-of-technology-stjit-chennai-192153</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>[{'id': 1011550, 'name': 'Dhanush B (IEEE RAS Secretary)', 'designation': None, 'contact_no': '6382727962', 'contactable_id': 192153, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'dhanu@ieee.org'}, {'id': 1011551, 'name': 'Dharshan M (IEEE APS Vice-Secretary)', 'designation': None, 'contact_no': '7358638668', 'contactable_id': 192153, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'dharshaanmuruganandhan@gmail.com'}, {'id': 1011552, 'name': 'Raja Muthu S (IEEE EMBS Secretary)', 'designation': None, 'contact_no': '9597081042', 'contactable_id': 192153, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'rajamuthuantony@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/makeuc-2021-university-of-cincinnati-191766</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>[{'id': 1011442, 'name': 'MakeUC', 'designation': None, 'contact_no': '', 'contactable_id': 191766, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'info@makeuc.io'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/android-app-development-nullclass-191311</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>[{'id': 1011292, 'name': 'NullClass', 'designation': None, 'contact_no': '+919566474509', 'contactable_id': 191311, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'admin@nullclass.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/virtual-accounting-innovation-challenge-2021-singapore-accountancy-commission-191107</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>[{'id': 1011231, 'name': 'SAC', 'designation': None, 'contact_no': '', 'contactable_id': 191107, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'hello@accountinghack.sg'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/egnite-ideathon-egnite-190765</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>[{'id': 1011119, 'name': 'Monish', 'designation': None, 'contact_no': '+917349636133', 'contactable_id': 190765, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'monish@egnite.in'}, {'id': 1011196, 'name': 'Sumit', 'designation': None, 'contact_no': '8971659659', 'contactable_id': 190765, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'sumit@egnite.in'}, {'id': 1011197, 'name': 'Madhu', 'designation': None, 'contact_no': '9844686299', 'contactable_id': 190765, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'madhu@egnite.in'}, {'id': 1011198, 'name': 'Ritika Subudhi', 'designation': None, 'contact_no': '6362779450', 'contactable_id': 190765, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ritika@egnite.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/webify-vihaan21-kcg-college-of-technology-kcgct-chennai-190995</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>[{'id': 1011188, 'name': 'Muzammil Sait', 'designation': None, 'contact_no': '8124255552', 'contactable_id': 190995, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'kcg.vihaan21@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>https://unstop.com/competition/code-o-festa-bannari-amman-institute-of-technology-tamil-nadu-190815</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>[{'id': 1011127, 'name': 'Dharshini S', 'designation': None, 'contact_no': '9750054100', 'contactable_id': 190815, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'dharshini.bm19@bitsathy.ac.in'}, {'id': 1011128, 'name': 'Balamurugan R', 'designation': None, 'contact_no': '6382637533', 'contactable_id': 190815, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'balamurugan.bm19@bitsathy.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/nasas-international-space-apps-challenge-nasa-189640</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>[{'id': 1010727, 'name': 'Support', 'designation': None, 'contact_no': '', 'contactable_id': 189640, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'universalevent@spaceappschallenge.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/encode-algorand-hackathon-encode-club-ltd-188893</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>[{'id': 1010524, 'name': 'Encode Club', 'designation': None, 'contact_no': '', 'contactable_id': 188893, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'anthony@encode.club'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/swadeshi-2021-bannari-amman-institute-of-technology-tamil-nadu-188473</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>[{'id': 1010402, 'name': 'Pragadheesan K', 'designation': None, 'contact_no': '9787783488', 'contactable_id': 188473, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'pragadheesan.ee19@bitsathy.ac.in'}, {'id': 1010403, 'name': 'Nikesh S', 'designation': None, 'contact_no': '9344138488', 'contactable_id': 188473, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'nikesh.bm19@bitsathy.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>https://unstop.com/competition/code-it-out-coding-contest-sardar-patel-institute-of-technology-spit-mumbai-187992</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>[{'id': 1010215, 'name': 'Naitik Jain', 'designation': None, 'contact_no': '+919769833374', 'contactable_id': 187992, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'naitikjain3071@gmail.com'}, {'id': 1010216, 'name': 'Aditya Kharote', 'designation': None, 'contact_no': '+9819360165', 'contactable_id': 187992, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'aditya.kharote@spit.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/flipr-hackathon-x-flipr-187274</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>[{'id': 1009984, 'name': 'Flipr ', 'designation': None, 'contact_no': '8989868676', 'contactable_id': 187274, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'devops@flipr.ai'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hackx-hackx-vellore-institute-of-technology-vit-vellore-186998</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>[{'id': 1009915, 'name': 'Arul Dharshan Saravanan', 'designation': None, 'contact_no': '+919715422263', 'contactable_id': 186998, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'arul.dharshan2019@vitstudent.ac.in'}, {'id': 1009916, 'name': 'Kathakoli Sengupta', 'designation': None, 'contact_no': '8697671050', 'contactable_id': 186998, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'kathakoli.sengupta2018@vitstudent.ac.ain'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/helix-hacks-ii-helix-hacks-186392</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>[{'id': 1009733, 'name': 'Helix Hacks', 'designation': None, 'contact_no': '', 'contactable_id': 186392, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'HelixYCSP@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/sethacks-set-foundation-186182</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>[{'id': 1009675, 'name': 'SET.Hacks()', 'designation': None, 'contact_no': '', 'contactable_id': 186182, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'hello@sethacks.ca'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/ideathon-roboprix21-vellore-institute-of-technology-vit-chennai-186047</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>[{'id': 1009636, 'name': 'Dr. Arockia Selvakumar A', 'designation': None, 'contact_no': '9962681933', 'contactable_id': 186047, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'selvahotline@gmail.com'}, {'id': 1009637, 'name': 'Jeevan Varma', 'designation': None, 'contact_no': '9848849911', 'contactable_id': 186047, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'jeevanvarma.p@gmail.com'}, {'id': 1009638, 'name': 'Gaurav PV', 'designation': None, 'contact_no': '7989832709', 'contactable_id': 186047, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'pampanagaurav@gmail.com'}, {'id': 1009639, 'name': 'Harsha Vardhan', 'designation': None, 'contact_no': '9003928248', 'contactable_id': 186047, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'harshavardhan.s2019@vitstudent.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/schoolhacks-schoolhacks-185873</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>[{'id': 1009596, 'name': 'SchoolHacks', 'designation': None, 'contact_no': '', 'contactable_id': 185873, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'schoolhacks.global@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/postulate-delhi-technological-university-dtu-new-delhi-184875</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>[{'id': 1009432, 'name': 'Vidushi Srivastava', 'designation': None, 'contact_no': '', 'contactable_id': 184875, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'vidushi@ecelldtu.in'}, {'id': 1009433, 'name': 'Adarsh Jha', 'designation': None, 'contact_no': '', 'contactable_id': 184875, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'adarsh@ecelldtu.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/grand-coding-contest-avengers-newton-schoolns-bengaluru-183017</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>[{'id': 1009149, 'name': 'Shashank Chandel', 'designation': None, 'contact_no': '', 'contactable_id': 183017, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'shashank@newtonschool.co'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/healthcare-innovation-challenge-2-nasscom-184163</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>[{'id': 1009348, 'name': 'Healthcare Innovation Challenge', 'designation': None, 'contact_no': '', 'contactable_id': 184163, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'hic@nasscom.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/yhills-game-of-codes-yhills-183229</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>[{'id': 1009188, 'name': 'Aman', 'designation': None, 'contact_no': '9003718469', 'contactable_id': 183229, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}, {'id': 1009189, 'name': 'Rahul', 'designation': None, 'contact_no': '8920780407', 'contactable_id': 183229, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/immers-ed-global-hackathon-university-of-oxford-england-183239</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>[{'id': 1009191, 'name': 'OXR', 'designation': None, 'contact_no': '', 'contactable_id': 183239, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'v-hub@it.ox.ac.uk'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/evathon-2021-university-of-limerick-limerick-ireland-182009</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>[{'id': 1008965, 'name': 'Meghana Kshirsagar', 'designation': None, 'contact_no': '', 'contactable_id': 182009, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'Meghana.Kshirsagar@ul.ie'}, {'id': 1009414, 'name': 'Yao Yao', 'designation': None, 'contact_no': '', 'contactable_id': 182009, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'Yao.Yao@ul.ie'}, {'id': 1009425, 'name': 'Gauri', 'designation': None, 'contact_no': '', 'contactable_id': 182009, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'gsvaidya2608@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hopperhacks-iii-saint-francis-high-school-182469</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>[{'id': 1009043, 'name': 'HopperHacks', 'designation': None, 'contact_no': '', 'contactable_id': 182469, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'girlswhocode@sfhs.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/code-craze-missioned-182368</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>[{'id': 1009032, 'name': 'Shubham Saurav', 'designation': None, 'contact_no': '', 'contactable_id': 182368, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'shubham@missioned.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/data-matrix-the-excel-hackathon-quollab-181095</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>[{'id': 1008747, 'name': 'Care Quollab', 'designation': None, 'contact_no': '', 'contactable_id': 181095, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'care@quollab.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/limbo-hacks-team-limbo-hacks-180608</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>[{'id': 1008664, 'name': 'Team Limbo Hacks', 'designation': None, 'contact_no': '', 'contactable_id': 180608, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'abusayid693@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/vizathon-2021-coronavirus-visualization-team-179868</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>[{'id': 1008546, 'name': 'Coronavirus Visualization Team', 'designation': None, 'contact_no': '', 'contactable_id': 179868, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'vizathon@understandcovid.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/codejuring-robotics-club-nit-patna-179129</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>[{'id': 1008506, 'name': 'Pawan Singh', 'designation': None, 'contact_no': '8707880499', 'contactable_id': 179129, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'roboticsclub@nitp.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/isa-hit-hack-a-code-competition-haldia-institute-of-technology-hit-haldia-179148</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>[{'id': 1008524, 'name': 'Rahul Mishra', 'designation': None, 'contact_no': '+918292220938', 'contactable_id': 179148, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'rkrahulmishra88714@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/borderhacks-2021-borderhacks-177290</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>[{'id': 1008417, 'name': 'BorderHacks', 'designation': None, 'contact_no': '', 'contactable_id': 177290, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'support@borderhacks.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/deedhacks-2021-women-in-engineering-group-wie-simon-fraser-university-176376</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>[{'id': 1008287, 'name': 'WiE', 'designation': None, 'contact_no': '', 'contactable_id': 176376, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'wie@sfu.ca'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/summer-hackathon-2021-nightcode-175713</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>[{'id': 1008128, 'name': 'NightCode', 'designation': None, 'contact_no': '', 'contactable_id': 175713, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'nightcode@nightcode.dev'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/indias-premier-online-coding-challenge-june-2021-newton-schoolns-bengaluru-172985</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>[{'id': 1007598, 'name': 'Shashank Chandel', 'designation': None, 'contact_no': '', 'contactable_id': 172985, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'shashank@newtonschool.co'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/flipkart-grid-30-information-security-challenge-flipkart-grid-30-flipkart-174035</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>[{'id': 1007703, 'name': 'Helpdesk', 'designation': None, 'contact_no': '', 'contactable_id': 174035, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'support@dare2compete.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/flipkart-grid-30-software-development-challenge-flipkart-grid-30-flipkart-173986</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>[{'id': 1007697, 'name': 'Helpdesk', 'designation': None, 'contact_no': '', 'contactable_id': 173986, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'support@dare2compete.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/flipkart-grid-30-robotics-challenge-flipkart-grid-30-flipkart-175210</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>[{'id': 1007994, 'name': 'Helpdesk', 'designation': None, 'contact_no': '', 'contactable_id': 175210, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'support@dare2compete.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hackathon-techathlon-21-inderprastha-engineering-college-ipec-ghaziabad-175312</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>[{'id': 1008024, 'name': 'Team Techathlon', 'designation': None, 'contact_no': '', 'contactable_id': 175312, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'techathlon@ipec.org.in'}, {'id': 1008025, 'name': 'Ankur Kanaujia', 'designation': None, 'contact_no': '7007948347', 'contactable_id': 175312, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}, {'id': 1008026, 'name': 'Anjali Jangid', 'designation': None, 'contact_no': '9810190186', 'contactable_id': 175312, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/viral-tweets-prediction-challenge-delhi-technological-university-dtu-new-delhi-175005</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>[{'id': 1007908, 'name': 'MACS DTU', 'designation': None, 'contact_no': '', 'contactable_id': 175005, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'macsdtuofficial@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/intelligentzia-hackathon-institute-of-engineering-and-technology-iet-lucknow-174931</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>[{'id': 1007897, 'name': 'ECell, IET Lucknow', 'designation': None, 'contact_no': '6388489565', 'contactable_id': 174931, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'connect.ecell@ietlucknow.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/nextstep-hacks-20-hackalphax-174394</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>[{'id': 1007758, 'name': 'HackAlphaX', 'designation': None, 'contact_no': '', 'contactable_id': 174394, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'hackalpha@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/webocode-front-end-development-competition-netaji-subhas-university-of-technology-nsut-delhi-174042</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>[{'id': 1007700, 'name': 'Rohit Kumar', 'designation': None, 'contact_no': '+916203861756', 'contactable_id': 174042, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'campon99@gmail.com'}, {'id': 1007704, 'name': 'IEEE NSUT', 'designation': None, 'contact_no': '', 'contactable_id': 174042, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'ieeensut@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/explore-hacks-explore-hacks-174045</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>[{'id': 1007701, 'name': 'Explore Hacks', 'designation': None, 'contact_no': '', 'contactable_id': 174045, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'support@explorehacks.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hackrietj-hackrietj-rajasthan-institute-of-engineering-and-technology-173864</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>[{'id': 1007670, 'name': 'Apoorva Potlia', 'designation': None, 'contact_no': '9462619397', 'contactable_id': 173864, 'contactable_type': 'App\\Model\\Opportunity', 'email': '19ereec002.apoorva@rietjaipur.ac.in'}, {'id': 1007671, 'name': 'Janvi Jasoriya', 'designation': None, 'contact_no': '7413064707', 'contactable_id': 173864, 'contactable_type': 'App\\Model\\Opportunity', 'email': '20crixx603.janvi@rietjaipur.ac.in'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/nexus21-no-code-hack-a-thon-techniche-indian-institute-of-technology-iit-guwahati-172150</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>[{'id': 1007533, 'name': 'Akshat Singhal', 'designation': None, 'contact_no': '8076549767', 'contactable_id': 172150, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'akshatsinghal1411@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/one-health-hackathon-2021-one-health-hackathon-171578</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>[{'id': 1007457, 'name': 'OHH', 'designation': None, 'contact_no': '', 'contactable_id': 171578, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'admin@onehealthhackathon.org'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hackathon-x-volume-2-hack-sohne-171421</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>[{'id': 1007418, 'name': 'Hack &amp; Söhne', 'designation': None, 'contact_no': '', 'contactable_id': 171421, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'info@hackundsoehne.de'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/provision-hacks-provision-hacks-171071</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>[{'id': 1007326, 'name': 'Provision Hacks', 'designation': None, 'contact_no': '', 'contactable_id': 171071, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'info@provisionhacks.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/high-tech-hacks-high-tech-hacks-170820</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>[{'id': 1007260, 'name': 'High Tech Hacks', 'designation': None, 'contact_no': '', 'contactable_id': 170820, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'hightechhackathon@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hackfromhome-healthhacks-169822</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>[{'id': 1007052, 'name': 'health{hacks}', 'designation': None, 'contact_no': '', 'contactable_id': 169822, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'williampan@healthhacks.tech'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/she-the-force-wit-ace-hackathon-20-women-in-technology-wit-169521</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>[{'id': 1007002, 'name': 'WiT-ACE', 'designation': None, 'contact_no': '', 'contactable_id': 169521, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'info@wit-ace.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/wce-hackathon-2021-hackathon-walchand-college-of-engineering-wce-sangli-168986</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>[{'id': 1006939, 'name': 'WCE Hackathon', 'designation': None, 'contact_no': '9307581261', 'contactable_id': 168986, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'wcehackathon@walchandsangli.ac.in'}, {'id': 1007077, 'name': 'WCE ACM PR Team', 'designation': None, 'contact_no': '77739 88376', 'contactable_id': 168986, 'contactable_type': 'App\\Model\\Opportunity', 'email': ''}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/girls-of-south-bay-hacks-gsbhacks-168626</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>[{'id': 1006853, 'name': 'GSBHacks', 'designation': None, 'contact_no': '', 'contactable_id': 168626, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'GSBHacks2021@gmail.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/data-challenge-henry-harvin-education-168345</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>[{'id': 1006785, 'name': 'Pooja Gupta', 'designation': None, 'contact_no': '8506819991', 'contactable_id': 168345, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'pooja@henryharvin.com'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hack-the-earth-2021-hack-the-earth-168346</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>[{'id': 1006781, 'name': 'Hack The Earth', 'designation': None, 'contact_no': '', 'contactable_id': 168346, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'hello@hacktheearth.ca'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/program-paradox-inception-bharati-vidyapeeths-college-of-engineering-bvcoe-new-delhi-168101</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>[{'id': 1006717, 'name': 'BVP TechShuttle', 'designation': None, 'contact_no': '', 'contactable_id': 168101, 'contactable_type': 'App\\Model\\Opportunity', 'email': 'bvphackclub@gmail.com'}]</t>
         </is>
       </c>
     </row>
